--- a/output/StructureDefinition-rv-age-in-years.xlsx
+++ b/output/StructureDefinition-rv-age-in-years.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T11:27:05+01:00</t>
+    <t>2023-03-23T14:41:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-rv-age-in-years.xlsx
+++ b/output/StructureDefinition-rv-age-in-years.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T14:41:29+01:00</t>
+    <t>2023-03-27T14:34:38+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -5077,7 +5077,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>92</v>
@@ -6529,7 +6529,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>92</v>
@@ -7981,7 +7981,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>92</v>
@@ -9433,7 +9433,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>92</v>

--- a/output/StructureDefinition-rv-age-in-years.xlsx
+++ b/output/StructureDefinition-rv-age-in-years.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-27T14:34:38+02:00</t>
+    <t>2023-03-28T14:13:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1112,7 +1112,7 @@
     <t>Observation.code.coding.system</t>
   </si>
   <si>
-    <t>https://fhir.loinc.org</t>
+    <t>https://loinc.org</t>
   </si>
   <si>
     <t>Observation.code.coding.version</t>

--- a/output/StructureDefinition-rv-age-in-years.xlsx
+++ b/output/StructureDefinition-rv-age-in-years.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T14:13:32+02:00</t>
+    <t>2023-03-28T16:37:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-rv-age-in-years.xlsx
+++ b/output/StructureDefinition-rv-age-in-years.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T16:37:13+02:00</t>
+    <t>2023-03-28T22:15:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-rv-age-in-years.xlsx
+++ b/output/StructureDefinition-rv-age-in-years.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T22:15:03+02:00</t>
+    <t>2023-03-28T23:17:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-rv-age-in-years.xlsx
+++ b/output/StructureDefinition-rv-age-in-years.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$118</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$130</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4581" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5043" uniqueCount="665">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T23:17:42+02:00</t>
+    <t>2023-03-29T13:43:15+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -120,7 +120,7 @@
     <t>Abstract</t>
   </si>
   <si>
-    <t>false</t>
+    <t>true</t>
   </si>
   <si>
     <t>Derivation</t>
@@ -632,7 +632,7 @@
     <t>Observation.category</t>
   </si>
   <si>
-    <t>4</t>
+    <t>5</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
@@ -1004,6 +1004,51 @@
   </si>
   <si>
     <t>Observation.category:Persons.text</t>
+  </si>
+  <si>
+    <t>Observation.category:Count</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Observation.category:Count.id</t>
+  </si>
+  <si>
+    <t>Observation.category:Count.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:Count.coding</t>
+  </si>
+  <si>
+    <t>Observation.category:Count.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.category:Count.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:Count.coding.system</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/CodeSystem/umls</t>
+  </si>
+  <si>
+    <t>Observation.category:Count.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.category:Count.coding.code</t>
+  </si>
+  <si>
+    <t>C0750480</t>
+  </si>
+  <si>
+    <t>Observation.category:Count.coding.display</t>
+  </si>
+  <si>
+    <t>Observation.category:Count.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.category:Count.text</t>
   </si>
   <si>
     <t>Observation.category:Quantity</t>
@@ -2354,7 +2399,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP118"/>
+  <dimension ref="A1:AP130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -9345,7 +9390,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>243</v>
+        <v>328</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>82</v>
@@ -9422,7 +9467,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>248</v>
@@ -9542,7 +9587,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>256</v>
@@ -9587,7 +9632,7 @@
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="S60" t="s" s="2">
         <v>82</v>
@@ -9664,7 +9709,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>266</v>
@@ -9786,7 +9831,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>274</v>
@@ -9908,7 +9953,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>284</v>
@@ -10030,14 +10075,16 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="C64" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="D64" t="s" s="2">
-        <v>335</v>
+        <v>82</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -10053,22 +10100,22 @@
         <v>82</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K64" t="s" s="2">
         <v>198</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>336</v>
+        <v>199</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>337</v>
+        <v>200</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>338</v>
+        <v>201</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>339</v>
+        <v>202</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
@@ -10093,13 +10140,13 @@
         <v>82</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>340</v>
+        <v>119</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>341</v>
+        <v>203</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>342</v>
+        <v>204</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>82</v>
@@ -10117,13 +10164,13 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>334</v>
+        <v>196</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>104</v>
@@ -10132,30 +10179,30 @@
         <v>105</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>343</v>
+        <v>82</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>344</v>
+        <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>345</v>
+        <v>208</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>346</v>
+        <v>209</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>347</v>
+        <v>210</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>348</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>349</v>
+        <v>214</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10270,10 +10317,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10390,10 +10437,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>351</v>
+        <v>224</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10407,7 +10454,7 @@
         <v>81</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>82</v>
@@ -10512,10 +10559,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>352</v>
+        <v>234</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10630,10 +10677,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>353</v>
+        <v>236</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10750,10 +10797,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>354</v>
+        <v>238</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10795,7 +10842,7 @@
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
-        <v>355</v>
+        <v>243</v>
       </c>
       <c r="S70" t="s" s="2">
         <v>82</v>
@@ -10872,10 +10919,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>356</v>
+        <v>248</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10992,10 +11039,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>357</v>
+        <v>256</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11037,7 +11084,7 @@
       </c>
       <c r="Q72" s="2"/>
       <c r="R72" t="s" s="2">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="S72" t="s" s="2">
         <v>82</v>
@@ -11114,10 +11161,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>359</v>
+        <v>266</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11236,10 +11283,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>360</v>
+        <v>274</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11358,10 +11405,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>361</v>
+        <v>284</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11369,13 +11416,13 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>82</v>
@@ -11406,7 +11453,7 @@
         <v>82</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>362</v>
+        <v>82</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>82</v>
@@ -11480,14 +11527,14 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>82</v>
+        <v>350</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -11506,19 +11553,19 @@
         <v>93</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>364</v>
+        <v>198</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>82</v>
@@ -11543,13 +11590,13 @@
         <v>82</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>82</v>
+        <v>355</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>82</v>
+        <v>356</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>82</v>
+        <v>357</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>82</v>
@@ -11567,10 +11614,10 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>92</v>
@@ -11579,33 +11626,33 @@
         <v>104</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>82</v>
+        <v>359</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="AP76" t="s" s="2">
-        <v>82</v>
+        <v>363</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11616,7 +11663,7 @@
         <v>80</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>82</v>
@@ -11625,20 +11672,18 @@
         <v>82</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>374</v>
+        <v>215</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>375</v>
+        <v>216</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>82</v>
@@ -11687,19 +11732,19 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>373</v>
+        <v>218</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>170</v>
+        <v>82</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>82</v>
@@ -11708,13 +11753,13 @@
         <v>82</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>345</v>
+        <v>82</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>378</v>
+        <v>113</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>372</v>
+        <v>82</v>
       </c>
       <c r="AP77" t="s" s="2">
         <v>82</v>
@@ -11722,21 +11767,21 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>380</v>
+        <v>139</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>82</v>
@@ -11745,23 +11790,21 @@
         <v>82</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>381</v>
+        <v>140</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>382</v>
+        <v>141</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>383</v>
+        <v>221</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>385</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>82</v>
       </c>
@@ -11797,46 +11840,46 @@
         <v>82</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC78" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>379</v>
+        <v>222</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>386</v>
+        <v>82</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>387</v>
+        <v>82</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>388</v>
+        <v>106</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>389</v>
+        <v>82</v>
       </c>
       <c r="AP78" t="s" s="2">
         <v>82</v>
@@ -11844,24 +11887,24 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>391</v>
+        <v>82</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>82</v>
@@ -11870,19 +11913,19 @@
         <v>93</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>392</v>
+        <v>225</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>393</v>
+        <v>226</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>394</v>
+        <v>227</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>395</v>
+        <v>228</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>396</v>
+        <v>229</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -11931,13 +11974,13 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>390</v>
+        <v>230</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>104</v>
@@ -11946,19 +11989,19 @@
         <v>105</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>397</v>
+        <v>82</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>398</v>
+        <v>231</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>399</v>
+        <v>232</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>400</v>
+        <v>82</v>
       </c>
       <c r="AP79" t="s" s="2">
         <v>82</v>
@@ -11966,10 +12009,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>401</v>
+        <v>367</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>401</v>
+        <v>367</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11989,20 +12032,18 @@
         <v>82</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>402</v>
+        <v>215</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>403</v>
+        <v>216</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>405</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>82</v>
@@ -12051,7 +12092,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>401</v>
+        <v>218</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -12060,10 +12101,10 @@
         <v>92</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>82</v>
@@ -12072,13 +12113,13 @@
         <v>82</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>406</v>
+        <v>82</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>407</v>
+        <v>113</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>408</v>
+        <v>82</v>
       </c>
       <c r="AP80" t="s" s="2">
         <v>82</v>
@@ -12086,14 +12127,14 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>409</v>
+        <v>368</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>409</v>
+        <v>368</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -12109,23 +12150,21 @@
         <v>82</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>410</v>
+        <v>140</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>411</v>
+        <v>141</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>412</v>
+        <v>221</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>413</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>82</v>
       </c>
@@ -12161,19 +12200,19 @@
         <v>82</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC81" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>409</v>
+        <v>222</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -12185,22 +12224,22 @@
         <v>104</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>414</v>
+        <v>82</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>415</v>
+        <v>82</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>416</v>
+        <v>106</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>417</v>
+        <v>82</v>
       </c>
       <c r="AP81" t="s" s="2">
         <v>82</v>
@@ -12208,10 +12247,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>418</v>
+        <v>369</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>418</v>
+        <v>369</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12219,7 +12258,7 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>92</v>
@@ -12234,26 +12273,26 @@
         <v>93</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>419</v>
+        <v>108</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>420</v>
+        <v>239</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>421</v>
+        <v>240</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>422</v>
+        <v>241</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>423</v>
+        <v>242</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q82" s="2"/>
       <c r="R82" t="s" s="2">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>82</v>
@@ -12283,17 +12322,19 @@
         <v>82</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="AC82" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>418</v>
+        <v>244</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12302,7 +12343,7 @@
         <v>92</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>425</v>
+        <v>104</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>105</v>
@@ -12311,31 +12352,29 @@
         <v>82</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>426</v>
+        <v>82</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>427</v>
+        <v>245</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>428</v>
+        <v>246</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>429</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>430</v>
+        <v>371</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="C83" t="s" s="2">
-        <v>431</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
         <v>82</v>
       </c>
@@ -12356,20 +12395,18 @@
         <v>93</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>432</v>
+        <v>215</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>420</v>
+        <v>249</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>421</v>
+        <v>250</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>82</v>
       </c>
@@ -12417,7 +12454,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>418</v>
+        <v>252</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12426,36 +12463,36 @@
         <v>92</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>425</v>
+        <v>104</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>426</v>
+        <v>82</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>427</v>
+        <v>253</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>428</v>
+        <v>254</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP83" t="s" s="2">
-        <v>429</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>433</v>
+        <v>372</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>434</v>
+        <v>372</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12463,7 +12500,7 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>92</v>
@@ -12475,25 +12512,29 @@
         <v>82</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="P84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q84" s="2"/>
       <c r="R84" t="s" s="2">
-        <v>82</v>
+        <v>373</v>
       </c>
       <c r="S84" t="s" s="2">
         <v>82</v>
@@ -12535,7 +12576,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>218</v>
+        <v>262</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12544,10 +12585,10 @@
         <v>92</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>82</v>
@@ -12556,10 +12597,10 @@
         <v>82</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>82</v>
+        <v>263</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>113</v>
+        <v>264</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>82</v>
@@ -12570,21 +12611,21 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>435</v>
+        <v>374</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>436</v>
+        <v>374</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>82</v>
@@ -12593,21 +12634,23 @@
         <v>82</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>141</v>
+        <v>267</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>221</v>
+        <v>268</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O85" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="P85" t="s" s="2">
         <v>82</v>
       </c>
@@ -12643,31 +12686,31 @@
         <v>82</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC85" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>222</v>
+        <v>270</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>82</v>
@@ -12676,10 +12719,10 @@
         <v>82</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>82</v>
+        <v>271</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>106</v>
+        <v>272</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>82</v>
@@ -12690,10 +12733,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>437</v>
+        <v>375</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>438</v>
+        <v>375</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12701,13 +12744,13 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>82</v>
@@ -12716,19 +12759,19 @@
         <v>93</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>439</v>
+        <v>275</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>440</v>
+        <v>276</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>441</v>
+        <v>277</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>442</v>
+        <v>278</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>443</v>
+        <v>279</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
@@ -12777,7 +12820,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>444</v>
+        <v>280</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12798,10 +12841,10 @@
         <v>82</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>445</v>
+        <v>281</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>446</v>
+        <v>282</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>82</v>
@@ -12812,10 +12855,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>447</v>
+        <v>376</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>448</v>
+        <v>376</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12823,46 +12866,44 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J87" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>115</v>
+        <v>215</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>449</v>
+        <v>285</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>450</v>
+        <v>286</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>451</v>
+        <v>288</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q87" t="s" s="2">
-        <v>452</v>
-      </c>
+      <c r="Q87" s="2"/>
       <c r="R87" t="s" s="2">
         <v>82</v>
       </c>
       <c r="S87" t="s" s="2">
-        <v>82</v>
+        <v>377</v>
       </c>
       <c r="T87" t="s" s="2">
         <v>82</v>
@@ -12877,13 +12918,13 @@
         <v>82</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>188</v>
+        <v>82</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>453</v>
+        <v>82</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>454</v>
+        <v>82</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>82</v>
@@ -12901,7 +12942,7 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>455</v>
+        <v>289</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -12922,10 +12963,10 @@
         <v>82</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>456</v>
+        <v>290</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>457</v>
+        <v>291</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>82</v>
@@ -12936,10 +12977,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>458</v>
+        <v>378</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>459</v>
+        <v>378</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12962,19 +13003,19 @@
         <v>93</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>215</v>
+        <v>379</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>460</v>
+        <v>380</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>461</v>
+        <v>381</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>259</v>
+        <v>382</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>462</v>
+        <v>383</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>82</v>
@@ -13023,7 +13064,7 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>463</v>
+        <v>378</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -13035,22 +13076,22 @@
         <v>104</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>82</v>
+        <v>384</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>464</v>
+        <v>385</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>465</v>
+        <v>386</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>82</v>
+        <v>387</v>
       </c>
       <c r="AP88" t="s" s="2">
         <v>82</v>
@@ -13058,10 +13099,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>466</v>
+        <v>388</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>467</v>
+        <v>388</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13069,13 +13110,13 @@
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I89" t="s" s="2">
         <v>82</v>
@@ -13084,26 +13125,24 @@
         <v>93</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>108</v>
+        <v>389</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>468</v>
+        <v>390</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>469</v>
+        <v>391</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>471</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q89" s="2"/>
       <c r="R89" t="s" s="2">
-        <v>472</v>
+        <v>82</v>
       </c>
       <c r="S89" t="s" s="2">
         <v>82</v>
@@ -13145,19 +13184,19 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>473</v>
+        <v>388</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>474</v>
+        <v>104</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>82</v>
@@ -13166,13 +13205,13 @@
         <v>82</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>464</v>
+        <v>360</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>475</v>
+        <v>393</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>82</v>
+        <v>387</v>
       </c>
       <c r="AP89" t="s" s="2">
         <v>82</v>
@@ -13180,24 +13219,24 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>476</v>
+        <v>394</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>477</v>
+        <v>394</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>82</v>
+        <v>395</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>82</v>
@@ -13206,26 +13245,26 @@
         <v>93</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>115</v>
+        <v>396</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>478</v>
+        <v>397</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>478</v>
+        <v>398</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>479</v>
+        <v>399</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q90" s="2"/>
       <c r="R90" t="s" s="2">
-        <v>481</v>
+        <v>82</v>
       </c>
       <c r="S90" t="s" s="2">
         <v>82</v>
@@ -13267,7 +13306,7 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>482</v>
+        <v>394</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -13279,22 +13318,22 @@
         <v>104</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>82</v>
+        <v>401</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>464</v>
+        <v>402</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>483</v>
+        <v>403</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>82</v>
+        <v>404</v>
       </c>
       <c r="AP90" t="s" s="2">
         <v>82</v>
@@ -13302,14 +13341,14 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>484</v>
+        <v>405</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>484</v>
+        <v>405</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>82</v>
+        <v>406</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -13319,28 +13358,28 @@
         <v>92</v>
       </c>
       <c r="H91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J91" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="I91" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="K91" t="s" s="2">
-        <v>198</v>
+        <v>407</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>485</v>
+        <v>408</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>486</v>
+        <v>409</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>487</v>
+        <v>410</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>488</v>
+        <v>411</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>82</v>
@@ -13365,11 +13404,13 @@
         <v>82</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="Y91" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z91" t="s" s="2">
-        <v>489</v>
+        <v>82</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>82</v>
@@ -13387,7 +13428,7 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>484</v>
+        <v>405</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13396,25 +13437,25 @@
         <v>92</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>490</v>
+        <v>104</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>82</v>
+        <v>412</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>106</v>
+        <v>413</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>491</v>
+        <v>414</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>82</v>
+        <v>415</v>
       </c>
       <c r="AP91" t="s" s="2">
         <v>82</v>
@@ -13422,21 +13463,21 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>492</v>
+        <v>416</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>492</v>
+        <v>416</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>493</v>
+        <v>82</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>82</v>
@@ -13445,23 +13486,21 @@
         <v>82</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>198</v>
+        <v>417</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>494</v>
+        <v>418</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>495</v>
+        <v>419</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>497</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>82</v>
       </c>
@@ -13485,13 +13524,13 @@
         <v>82</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>498</v>
+        <v>82</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>499</v>
+        <v>82</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>500</v>
+        <v>82</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>82</v>
@@ -13509,13 +13548,13 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>492</v>
+        <v>416</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>104</v>
@@ -13527,27 +13566,27 @@
         <v>82</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>501</v>
+        <v>82</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>502</v>
+        <v>421</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>503</v>
+        <v>422</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>82</v>
+        <v>423</v>
       </c>
       <c r="AP92" t="s" s="2">
-        <v>504</v>
+        <v>82</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>505</v>
+        <v>424</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>505</v>
+        <v>424</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13567,22 +13606,22 @@
         <v>82</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>506</v>
+        <v>425</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>507</v>
+        <v>426</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>508</v>
+        <v>427</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>509</v>
+        <v>168</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>510</v>
+        <v>428</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>82</v>
@@ -13631,7 +13670,7 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>505</v>
+        <v>424</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13643,22 +13682,22 @@
         <v>104</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>82</v>
+        <v>429</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>511</v>
+        <v>430</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>512</v>
+        <v>431</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>82</v>
+        <v>432</v>
       </c>
       <c r="AP93" t="s" s="2">
         <v>82</v>
@@ -13666,10 +13705,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>513</v>
+        <v>433</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>513</v>
+        <v>433</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13689,21 +13728,23 @@
         <v>82</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>198</v>
+        <v>434</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>514</v>
+        <v>435</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>515</v>
+        <v>436</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="O94" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="P94" t="s" s="2">
         <v>82</v>
       </c>
@@ -13727,31 +13768,29 @@
         <v>82</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>340</v>
+        <v>82</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>517</v>
+        <v>82</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>518</v>
+        <v>82</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="AC94" s="2"/>
       <c r="AD94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>513</v>
+        <v>433</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13760,7 +13799,7 @@
         <v>92</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>104</v>
+        <v>440</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>105</v>
@@ -13769,29 +13808,31 @@
         <v>82</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>519</v>
+        <v>441</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>520</v>
+        <v>442</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>521</v>
+        <v>443</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP94" t="s" s="2">
-        <v>522</v>
+        <v>444</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>523</v>
+        <v>445</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="C95" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>446</v>
+      </c>
       <c r="D95" t="s" s="2">
         <v>82</v>
       </c>
@@ -13809,22 +13850,22 @@
         <v>82</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>198</v>
+        <v>447</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>524</v>
+        <v>435</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>525</v>
+        <v>436</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>526</v>
+        <v>437</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>527</v>
+        <v>438</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>82</v>
@@ -13849,13 +13890,13 @@
         <v>82</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>340</v>
+        <v>82</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>528</v>
+        <v>82</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>529</v>
+        <v>82</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>82</v>
@@ -13873,7 +13914,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>523</v>
+        <v>433</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13882,36 +13923,36 @@
         <v>92</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>104</v>
+        <v>440</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>82</v>
+        <v>441</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>530</v>
+        <v>442</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>531</v>
+        <v>443</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP95" t="s" s="2">
-        <v>82</v>
+        <v>444</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>532</v>
+        <v>448</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>532</v>
+        <v>449</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13934,17 +13975,15 @@
         <v>82</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>533</v>
+        <v>215</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>534</v>
+        <v>216</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>536</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N96" s="2"/>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>82</v>
@@ -13993,7 +14032,7 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>532</v>
+        <v>218</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -14002,47 +14041,47 @@
         <v>92</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>170</v>
+        <v>82</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>537</v>
+        <v>82</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>538</v>
+        <v>82</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>539</v>
+        <v>113</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP96" t="s" s="2">
-        <v>540</v>
+        <v>82</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>541</v>
+        <v>450</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>541</v>
+        <v>451</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>82</v>
@@ -14054,16 +14093,16 @@
         <v>82</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>542</v>
+        <v>140</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>543</v>
+        <v>141</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>544</v>
+        <v>221</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>545</v>
+        <v>143</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -14101,57 +14140,57 @@
         <v>82</v>
       </c>
       <c r="AB97" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC97" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD97" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>541</v>
+        <v>222</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>546</v>
+        <v>82</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>547</v>
+        <v>82</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>548</v>
+        <v>106</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP97" t="s" s="2">
-        <v>549</v>
+        <v>82</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>550</v>
+        <v>452</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>550</v>
+        <v>453</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14159,34 +14198,34 @@
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>551</v>
+        <v>454</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>552</v>
+        <v>455</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>553</v>
+        <v>456</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>554</v>
+        <v>457</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>555</v>
+        <v>458</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -14235,19 +14274,19 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>550</v>
+        <v>459</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>556</v>
+        <v>105</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>82</v>
@@ -14256,10 +14295,10 @@
         <v>82</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>557</v>
+        <v>460</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>558</v>
+        <v>461</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>82</v>
@@ -14270,10 +14309,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>559</v>
+        <v>462</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>559</v>
+        <v>463</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14290,26 +14329,32 @@
         <v>82</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>216</v>
+        <v>464</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N99" s="2"/>
-      <c r="O99" s="2"/>
+        <v>465</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>466</v>
+      </c>
       <c r="P99" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>467</v>
+      </c>
       <c r="R99" t="s" s="2">
         <v>82</v>
       </c>
@@ -14329,13 +14374,13 @@
         <v>82</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>82</v>
+        <v>468</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>82</v>
+        <v>469</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>82</v>
@@ -14353,7 +14398,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>218</v>
+        <v>470</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14362,10 +14407,10 @@
         <v>92</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>82</v>
@@ -14374,10 +14419,10 @@
         <v>82</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>82</v>
+        <v>471</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>113</v>
+        <v>472</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>82</v>
@@ -14388,44 +14433,46 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>560</v>
+        <v>473</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>560</v>
+        <v>474</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I100" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>141</v>
+        <v>475</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>221</v>
+        <v>476</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O100" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>477</v>
+      </c>
       <c r="P100" t="s" s="2">
         <v>82</v>
       </c>
@@ -14461,31 +14508,31 @@
         <v>82</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC100" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD100" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>222</v>
+        <v>478</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>82</v>
@@ -14494,10 +14541,10 @@
         <v>82</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>82</v>
+        <v>479</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>106</v>
+        <v>480</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>82</v>
@@ -14508,52 +14555,52 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>561</v>
+        <v>481</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>561</v>
+        <v>482</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>562</v>
+        <v>82</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H101" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J101" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>563</v>
+        <v>483</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>564</v>
+        <v>484</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>143</v>
+        <v>485</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>152</v>
+        <v>486</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q101" s="2"/>
       <c r="R101" t="s" s="2">
-        <v>82</v>
+        <v>487</v>
       </c>
       <c r="S101" t="s" s="2">
         <v>82</v>
@@ -14595,19 +14642,19 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>565</v>
+        <v>488</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>104</v>
+        <v>489</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>82</v>
@@ -14616,10 +14663,10 @@
         <v>82</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>82</v>
+        <v>479</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>106</v>
+        <v>490</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>82</v>
@@ -14630,10 +14677,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>566</v>
+        <v>491</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>566</v>
+        <v>492</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14641,39 +14688,41 @@
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H102" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I102" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>567</v>
+        <v>115</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>568</v>
+        <v>493</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>569</v>
+        <v>493</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="O102" s="2"/>
+        <v>494</v>
+      </c>
+      <c r="O102" t="s" s="2">
+        <v>495</v>
+      </c>
       <c r="P102" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q102" s="2"/>
       <c r="R102" t="s" s="2">
-        <v>82</v>
+        <v>496</v>
       </c>
       <c r="S102" t="s" s="2">
         <v>82</v>
@@ -14715,7 +14764,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>566</v>
+        <v>497</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14724,10 +14773,10 @@
         <v>92</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>571</v>
+        <v>104</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>572</v>
+        <v>105</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>82</v>
@@ -14736,10 +14785,10 @@
         <v>82</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>573</v>
+        <v>479</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>574</v>
+        <v>498</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>82</v>
@@ -14750,10 +14799,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>575</v>
+        <v>499</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>575</v>
+        <v>499</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14767,7 +14816,7 @@
         <v>92</v>
       </c>
       <c r="H103" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I103" t="s" s="2">
         <v>82</v>
@@ -14776,18 +14825,20 @@
         <v>82</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>567</v>
+        <v>198</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>576</v>
+        <v>500</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>577</v>
+        <v>501</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="O103" s="2"/>
+        <v>502</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>503</v>
+      </c>
       <c r="P103" t="s" s="2">
         <v>82</v>
       </c>
@@ -14811,13 +14862,11 @@
         <v>82</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="Y103" s="2"/>
       <c r="Z103" t="s" s="2">
-        <v>82</v>
+        <v>504</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>82</v>
@@ -14835,7 +14884,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>575</v>
+        <v>499</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14844,10 +14893,10 @@
         <v>92</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>571</v>
+        <v>505</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>572</v>
+        <v>105</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>82</v>
@@ -14856,10 +14905,10 @@
         <v>82</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>573</v>
+        <v>106</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>578</v>
+        <v>506</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>82</v>
@@ -14870,21 +14919,21 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>579</v>
+        <v>507</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>579</v>
+        <v>507</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>82</v>
+        <v>508</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>82</v>
@@ -14899,16 +14948,16 @@
         <v>198</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>580</v>
+        <v>509</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>582</v>
+        <v>511</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>583</v>
+        <v>512</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>82</v>
@@ -14933,13 +14982,13 @@
         <v>82</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>119</v>
+        <v>513</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>584</v>
+        <v>514</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>585</v>
+        <v>515</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>82</v>
@@ -14957,13 +15006,13 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>579</v>
+        <v>507</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>104</v>
@@ -14975,27 +15024,27 @@
         <v>82</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>586</v>
+        <v>516</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>587</v>
+        <v>517</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP104" t="s" s="2">
-        <v>82</v>
+        <v>519</v>
       </c>
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>588</v>
+        <v>520</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>588</v>
+        <v>520</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15018,19 +15067,19 @@
         <v>82</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>198</v>
+        <v>521</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>589</v>
+        <v>522</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>590</v>
+        <v>523</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>591</v>
+        <v>524</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>592</v>
+        <v>525</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>82</v>
@@ -15055,13 +15104,13 @@
         <v>82</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>340</v>
+        <v>82</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>593</v>
+        <v>82</v>
       </c>
       <c r="Z105" t="s" s="2">
-        <v>594</v>
+        <v>82</v>
       </c>
       <c r="AA105" t="s" s="2">
         <v>82</v>
@@ -15079,7 +15128,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>588</v>
+        <v>520</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15097,13 +15146,13 @@
         <v>82</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>586</v>
+        <v>82</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>587</v>
+        <v>526</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>503</v>
+        <v>527</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>82</v>
@@ -15114,10 +15163,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15140,20 +15189,18 @@
         <v>82</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>596</v>
+        <v>198</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>597</v>
+        <v>529</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>598</v>
+        <v>530</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>600</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
         <v>82</v>
       </c>
@@ -15177,13 +15224,13 @@
         <v>82</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>82</v>
+        <v>355</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>82</v>
+        <v>532</v>
       </c>
       <c r="Z106" t="s" s="2">
-        <v>82</v>
+        <v>533</v>
       </c>
       <c r="AA106" t="s" s="2">
         <v>82</v>
@@ -15201,7 +15248,7 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15213,33 +15260,33 @@
         <v>104</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>601</v>
+        <v>105</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>82</v>
+        <v>534</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>602</v>
+        <v>535</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>603</v>
+        <v>536</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP106" t="s" s="2">
-        <v>82</v>
+        <v>537</v>
       </c>
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>604</v>
+        <v>538</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>604</v>
+        <v>538</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15262,18 +15309,20 @@
         <v>82</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>605</v>
+        <v>539</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>606</v>
+        <v>540</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O107" s="2"/>
+        <v>541</v>
+      </c>
+      <c r="O107" t="s" s="2">
+        <v>542</v>
+      </c>
       <c r="P107" t="s" s="2">
         <v>82</v>
       </c>
@@ -15297,13 +15346,13 @@
         <v>82</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>82</v>
+        <v>355</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>82</v>
+        <v>543</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>82</v>
+        <v>544</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>82</v>
@@ -15321,7 +15370,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>604</v>
+        <v>538</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15342,10 +15391,10 @@
         <v>82</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>573</v>
+        <v>545</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>607</v>
+        <v>546</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>82</v>
@@ -15356,10 +15405,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>608</v>
+        <v>547</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>608</v>
+        <v>547</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15370,7 +15419,7 @@
         <v>80</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>82</v>
@@ -15379,19 +15428,19 @@
         <v>82</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>609</v>
+        <v>548</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>610</v>
+        <v>549</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>611</v>
+        <v>550</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>612</v>
+        <v>551</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
@@ -15441,13 +15490,13 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>608</v>
+        <v>547</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>104</v>
@@ -15459,27 +15508,27 @@
         <v>82</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>82</v>
+        <v>552</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>613</v>
+        <v>553</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>614</v>
+        <v>554</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP108" t="s" s="2">
-        <v>82</v>
+        <v>555</v>
       </c>
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>615</v>
+        <v>556</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>615</v>
+        <v>556</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15490,7 +15539,7 @@
         <v>80</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>82</v>
@@ -15499,19 +15548,19 @@
         <v>82</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>616</v>
+        <v>557</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>617</v>
+        <v>558</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>618</v>
+        <v>559</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>619</v>
+        <v>560</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -15561,13 +15610,13 @@
         <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>615</v>
+        <v>556</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>104</v>
@@ -15579,27 +15628,27 @@
         <v>82</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>82</v>
+        <v>561</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>613</v>
+        <v>562</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>620</v>
+        <v>563</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP109" t="s" s="2">
-        <v>82</v>
+        <v>564</v>
       </c>
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>621</v>
+        <v>565</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>621</v>
+        <v>565</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15619,22 +15668,22 @@
         <v>82</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>551</v>
+        <v>566</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>622</v>
+        <v>567</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>623</v>
+        <v>568</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>624</v>
+        <v>569</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>625</v>
+        <v>570</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>82</v>
@@ -15683,7 +15732,7 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>621</v>
+        <v>565</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -15695,7 +15744,7 @@
         <v>104</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>105</v>
+        <v>571</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>82</v>
@@ -15704,10 +15753,10 @@
         <v>82</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>626</v>
+        <v>572</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>627</v>
+        <v>573</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>82</v>
@@ -15718,10 +15767,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>628</v>
+        <v>574</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>628</v>
+        <v>574</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15836,10 +15885,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>629</v>
+        <v>575</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>629</v>
+        <v>575</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15956,14 +16005,14 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>630</v>
+        <v>576</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>630</v>
+        <v>576</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>562</v>
+        <v>577</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
@@ -15985,10 +16034,10 @@
         <v>140</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>563</v>
+        <v>578</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>564</v>
+        <v>579</v>
       </c>
       <c r="N113" t="s" s="2">
         <v>143</v>
@@ -16043,7 +16092,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>565</v>
+        <v>580</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -16078,10 +16127,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>631</v>
+        <v>581</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>631</v>
+        <v>581</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16089,7 +16138,7 @@
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>92</v>
@@ -16101,23 +16150,21 @@
         <v>82</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>198</v>
+        <v>582</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>632</v>
+        <v>583</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>633</v>
+        <v>584</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="O114" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>585</v>
+      </c>
+      <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
         <v>82</v>
       </c>
@@ -16141,13 +16188,13 @@
         <v>82</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>340</v>
+        <v>82</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>341</v>
+        <v>82</v>
       </c>
       <c r="Z114" t="s" s="2">
-        <v>342</v>
+        <v>82</v>
       </c>
       <c r="AA114" t="s" s="2">
         <v>82</v>
@@ -16165,34 +16212,34 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>631</v>
+        <v>581</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>104</v>
+        <v>586</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>105</v>
+        <v>587</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>635</v>
+        <v>82</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>345</v>
+        <v>588</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>346</v>
+        <v>589</v>
       </c>
       <c r="AO114" t="s" s="2">
-        <v>347</v>
+        <v>82</v>
       </c>
       <c r="AP114" t="s" s="2">
         <v>82</v>
@@ -16200,10 +16247,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>636</v>
+        <v>590</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>636</v>
+        <v>590</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16223,23 +16270,21 @@
         <v>82</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>419</v>
+        <v>582</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>637</v>
+        <v>591</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>421</v>
+        <v>592</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="O115" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>585</v>
+      </c>
+      <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
         <v>82</v>
       </c>
@@ -16287,7 +16332,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>636</v>
+        <v>590</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16296,36 +16341,36 @@
         <v>92</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>104</v>
+        <v>586</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>105</v>
+        <v>587</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>639</v>
+        <v>82</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>427</v>
+        <v>588</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>428</v>
+        <v>593</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP115" t="s" s="2">
-        <v>429</v>
+        <v>82</v>
       </c>
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>640</v>
+        <v>594</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>640</v>
+        <v>594</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16351,16 +16396,16 @@
         <v>198</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>641</v>
+        <v>595</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>642</v>
+        <v>596</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>643</v>
+        <v>597</v>
       </c>
       <c r="O116" t="s" s="2">
-        <v>488</v>
+        <v>598</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>82</v>
@@ -16385,13 +16430,13 @@
         <v>82</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>498</v>
+        <v>119</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>644</v>
+        <v>599</v>
       </c>
       <c r="Z116" t="s" s="2">
-        <v>645</v>
+        <v>600</v>
       </c>
       <c r="AA116" t="s" s="2">
         <v>82</v>
@@ -16409,7 +16454,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>640</v>
+        <v>594</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16418,7 +16463,7 @@
         <v>92</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>490</v>
+        <v>104</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>105</v>
@@ -16427,13 +16472,13 @@
         <v>82</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>82</v>
+        <v>601</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>106</v>
+        <v>602</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>491</v>
+        <v>518</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>82</v>
@@ -16444,14 +16489,14 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>646</v>
+        <v>603</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>646</v>
+        <v>603</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
-        <v>493</v>
+        <v>82</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" t="s" s="2">
@@ -16473,16 +16518,16 @@
         <v>198</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>494</v>
+        <v>604</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>495</v>
+        <v>605</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>496</v>
+        <v>606</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>497</v>
+        <v>607</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>82</v>
@@ -16507,13 +16552,13 @@
         <v>82</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>498</v>
+        <v>355</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>499</v>
+        <v>608</v>
       </c>
       <c r="Z117" t="s" s="2">
-        <v>500</v>
+        <v>609</v>
       </c>
       <c r="AA117" t="s" s="2">
         <v>82</v>
@@ -16531,7 +16576,7 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>646</v>
+        <v>603</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -16549,27 +16594,27 @@
         <v>82</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>501</v>
+        <v>601</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>502</v>
+        <v>602</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP117" t="s" s="2">
-        <v>504</v>
+        <v>82</v>
       </c>
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>647</v>
+        <v>610</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>647</v>
+        <v>610</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16580,7 +16625,7 @@
         <v>80</v>
       </c>
       <c r="G118" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H118" t="s" s="2">
         <v>82</v>
@@ -16592,19 +16637,19 @@
         <v>82</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>83</v>
+        <v>611</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>648</v>
+        <v>612</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>649</v>
+        <v>613</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>554</v>
+        <v>614</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>555</v>
+        <v>615</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>82</v>
@@ -16653,41 +16698,1493 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="AG118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH118" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI118" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="AK118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM118" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="AN118" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="AO118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP118" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="119" hidden="true">
+      <c r="A119" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="B119" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="C119" s="2"/>
+      <c r="D119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E119" s="2"/>
+      <c r="F119" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G119" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K119" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L119" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="N119" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O119" s="2"/>
+      <c r="P119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q119" s="2"/>
+      <c r="R119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF119" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="AG119" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH119" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI119" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ119" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM119" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="AN119" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="AO119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP119" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="120" hidden="true">
+      <c r="A120" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="B120" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="C120" s="2"/>
+      <c r="D120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E120" s="2"/>
+      <c r="F120" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G120" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J120" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K120" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="N120" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="O120" s="2"/>
+      <c r="P120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q120" s="2"/>
+      <c r="R120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF120" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="AG120" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH120" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI120" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ120" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AK120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM120" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="AN120" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="AO120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP120" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="121" hidden="true">
+      <c r="A121" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="B121" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="C121" s="2"/>
+      <c r="D121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E121" s="2"/>
+      <c r="F121" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G121" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J121" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K121" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="L121" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="N121" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="O121" s="2"/>
+      <c r="P121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q121" s="2"/>
+      <c r="R121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF121" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="AG121" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH121" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI121" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ121" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AK121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM121" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="AN121" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="AO121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP121" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="122" hidden="true">
+      <c r="A122" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="B122" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="C122" s="2"/>
+      <c r="D122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E122" s="2"/>
+      <c r="F122" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G122" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J122" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K122" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="L122" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="N122" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="O122" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="P122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q122" s="2"/>
+      <c r="R122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF122" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="AG122" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH122" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI122" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ122" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM122" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="AN122" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="AO122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP122" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="123" hidden="true">
+      <c r="A123" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="B123" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="C123" s="2"/>
+      <c r="D123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E123" s="2"/>
+      <c r="F123" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G123" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K123" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L123" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M123" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="N123" s="2"/>
+      <c r="O123" s="2"/>
+      <c r="P123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q123" s="2"/>
+      <c r="R123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF123" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AG123" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH123" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN123" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AO123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP123" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="124" hidden="true">
+      <c r="A124" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="B124" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="C124" s="2"/>
+      <c r="D124" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="E124" s="2"/>
+      <c r="F124" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G124" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K124" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L124" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M124" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N124" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O124" s="2"/>
+      <c r="P124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q124" s="2"/>
+      <c r="R124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB124" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AC124" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AD124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE124" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AF124" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AG124" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH124" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI124" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ124" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AK124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN124" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AO124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP124" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="125" hidden="true">
+      <c r="A125" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="B125" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="C125" s="2"/>
+      <c r="D125" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="E125" s="2"/>
+      <c r="F125" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G125" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I125" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="J125" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K125" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L125" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="N125" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O125" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="P125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q125" s="2"/>
+      <c r="R125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF125" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="AG125" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH125" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI125" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ125" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AK125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN125" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AO125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP125" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="126" hidden="true">
+      <c r="A126" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="B126" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="C126" s="2"/>
+      <c r="D126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E126" s="2"/>
+      <c r="F126" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G126" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J126" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K126" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L126" t="s" s="2">
         <v>647</v>
       </c>
-      <c r="AG118" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH118" t="s" s="2">
+      <c r="M126" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="N126" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="O126" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="P126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q126" s="2"/>
+      <c r="R126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X126" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="Y126" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="Z126" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AA126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF126" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="AG126" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH126" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI126" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ126" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL126" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="AM126" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AN126" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AO126" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AP126" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="127" hidden="true">
+      <c r="A127" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="B127" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="C127" s="2"/>
+      <c r="D127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E127" s="2"/>
+      <c r="F127" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G127" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J127" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K127" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="L127" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="M127" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="N127" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="O127" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="P127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q127" s="2"/>
+      <c r="R127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF127" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="AG127" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH127" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI127" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ127" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL127" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="AM127" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AN127" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AO127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP127" t="s" s="2">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="128" hidden="true">
+      <c r="A128" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="B128" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="C128" s="2"/>
+      <c r="D128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E128" s="2"/>
+      <c r="F128" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G128" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K128" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L128" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="M128" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="N128" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="O128" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="P128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q128" s="2"/>
+      <c r="R128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X128" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="Y128" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="Z128" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="AA128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF128" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="AG128" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH128" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI128" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AJ128" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM128" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AN128" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AO128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP128" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="129" hidden="true">
+      <c r="A129" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="B129" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="C129" s="2"/>
+      <c r="D129" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="E129" s="2"/>
+      <c r="F129" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G129" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AI118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM118" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="AN118" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="AO118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP118" t="s" s="2">
+      <c r="H129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K129" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L129" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="M129" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="N129" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="O129" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="P129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q129" s="2"/>
+      <c r="R129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X129" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="Y129" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="Z129" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AA129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF129" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="AG129" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH129" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI129" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ129" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL129" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AM129" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AN129" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AO129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP129" t="s" s="2">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="130" hidden="true">
+      <c r="A130" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="B130" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="C130" s="2"/>
+      <c r="D130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E130" s="2"/>
+      <c r="F130" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G130" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K130" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L130" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="M130" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="N130" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="O130" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="P130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q130" s="2"/>
+      <c r="R130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF130" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="AG130" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH130" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM130" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="AN130" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AO130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP130" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP118">
+  <autoFilter ref="A1:AP130">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -16697,7 +18194,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI117">
+  <conditionalFormatting sqref="A2:AI129">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-rv-age-in-years.xlsx
+++ b/output/StructureDefinition-rv-age-in-years.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$130</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$154</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5043" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5967" uniqueCount="693">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-29T13:43:15+02:00</t>
+    <t>2023-03-30T02:04:17+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -632,7 +632,7 @@
     <t>Observation.category</t>
   </si>
   <si>
-    <t>5</t>
+    <t>7</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
@@ -676,13 +676,13 @@
     <t>FiveWs.class</t>
   </si>
   <si>
-    <t>Observation.category:Age_SNOMED</t>
-  </si>
-  <si>
-    <t>Age_SNOMED</t>
-  </si>
-  <si>
-    <t>Observation.category:Age_SNOMED.id</t>
+    <t>Observation.category:Age_UMLS</t>
+  </si>
+  <si>
+    <t>Age_UMLS</t>
+  </si>
+  <si>
+    <t>Observation.category:Age_UMLS.id</t>
   </si>
   <si>
     <t>Observation.category.id</t>
@@ -701,7 +701,7 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>Observation.category:Age_SNOMED.extension</t>
+    <t>Observation.category:Age_UMLS.extension</t>
   </si>
   <si>
     <t>Observation.category.extension</t>
@@ -713,7 +713,7 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>Observation.category:Age_SNOMED.coding</t>
+    <t>Observation.category:Age_UMLS.coding</t>
   </si>
   <si>
     <t>Observation.category.coding</t>
@@ -744,19 +744,19 @@
     <t>union(., ./translation)</t>
   </si>
   <si>
-    <t>Observation.category:Age_SNOMED.coding.id</t>
+    <t>Observation.category:Age_UMLS.coding.id</t>
   </si>
   <si>
     <t>Observation.category.coding.id</t>
   </si>
   <si>
-    <t>Observation.category:Age_SNOMED.coding.extension</t>
+    <t>Observation.category:Age_UMLS.coding.extension</t>
   </si>
   <si>
     <t>Observation.category.coding.extension</t>
   </si>
   <si>
-    <t>Observation.category:Age_SNOMED.coding.system</t>
+    <t>Observation.category:Age_UMLS.coding.system</t>
   </si>
   <si>
     <t>Observation.category.coding.system</t>
@@ -774,7 +774,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://snomed.info/sct</t>
+    <t>http://terminology.hl7.org/CodeSystem/umls</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -786,7 +786,7 @@
     <t>./codeSystem</t>
   </si>
   <si>
-    <t>Observation.category:Age_SNOMED.coding.version</t>
+    <t>Observation.category:Age_UMLS.coding.version</t>
   </si>
   <si>
     <t>Observation.category.coding.version</t>
@@ -810,7 +810,7 @@
     <t>./codeSystemVersion</t>
   </si>
   <si>
-    <t>Observation.category:Age_SNOMED.coding.code</t>
+    <t>Observation.category:Age_UMLS.coding.code</t>
   </si>
   <si>
     <t>Observation.category.coding.code</t>
@@ -828,7 +828,7 @@
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
-    <t>397669002</t>
+    <t>C0001779</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -840,7 +840,7 @@
     <t>./code</t>
   </si>
   <si>
-    <t>Observation.category:Age_SNOMED.coding.display</t>
+    <t>Observation.category:Age_UMLS.coding.display</t>
   </si>
   <si>
     <t>Observation.category.coding.display</t>
@@ -864,7 +864,7 @@
     <t>CV.displayName</t>
   </si>
   <si>
-    <t>Observation.category:Age_SNOMED.coding.userSelected</t>
+    <t>Observation.category:Age_UMLS.coding.userSelected</t>
   </si>
   <si>
     <t>Observation.category.coding.userSelected</t>
@@ -895,73 +895,160 @@
     <t>CD.codingRationale</t>
   </si>
   <si>
+    <t>Observation.category:Age_UMLS.text</t>
+  </si>
+  <si>
+    <t>Observation.category.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>Observation.category:Age_SNOMED</t>
+  </si>
+  <si>
+    <t>Age_SNOMED</t>
+  </si>
+  <si>
+    <t>Observation.category:Age_SNOMED.id</t>
+  </si>
+  <si>
+    <t>Observation.category:Age_SNOMED.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:Age_SNOMED.coding</t>
+  </si>
+  <si>
+    <t>Observation.category:Age_SNOMED.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.category:Age_SNOMED.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:Age_SNOMED.coding.system</t>
+  </si>
+  <si>
+    <t>http://snomed.info/sct</t>
+  </si>
+  <si>
+    <t>Observation.category:Age_SNOMED.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.category:Age_SNOMED.coding.code</t>
+  </si>
+  <si>
+    <t>397669002</t>
+  </si>
+  <si>
+    <t>Observation.category:Age_SNOMED.coding.display</t>
+  </si>
+  <si>
+    <t>Observation.category:Age_SNOMED.coding.userSelected</t>
+  </si>
+  <si>
     <t>Observation.category:Age_SNOMED.text</t>
   </si>
   <si>
-    <t>Observation.category.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>Observation.category:CurrentAge</t>
-  </si>
-  <si>
-    <t>CurrentAge</t>
-  </si>
-  <si>
-    <t>Observation.category:CurrentAge.id</t>
-  </si>
-  <si>
-    <t>Observation.category:CurrentAge.extension</t>
-  </si>
-  <si>
-    <t>Observation.category:CurrentAge.coding</t>
-  </si>
-  <si>
-    <t>Observation.category:CurrentAge.coding.id</t>
-  </si>
-  <si>
-    <t>Observation.category:CurrentAge.coding.extension</t>
-  </si>
-  <si>
-    <t>Observation.category:CurrentAge.coding.system</t>
-  </si>
-  <si>
-    <t>Observation.category:CurrentAge.coding.version</t>
-  </si>
-  <si>
-    <t>Observation.category:CurrentAge.coding.code</t>
+    <t>Observation.category:CurrentAge_UMLS</t>
+  </si>
+  <si>
+    <t>CurrentAge_UMLS</t>
+  </si>
+  <si>
+    <t>Observation.category:CurrentAge_UMLS.id</t>
+  </si>
+  <si>
+    <t>Observation.category:CurrentAge_UMLS.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:CurrentAge_UMLS.coding</t>
+  </si>
+  <si>
+    <t>Observation.category:CurrentAge_UMLS.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.category:CurrentAge_UMLS.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:CurrentAge_UMLS.coding.system</t>
+  </si>
+  <si>
+    <t>Observation.category:CurrentAge_UMLS.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.category:CurrentAge_UMLS.coding.code</t>
+  </si>
+  <si>
+    <t>C2598519</t>
+  </si>
+  <si>
+    <t>Observation.category:CurrentAge_UMLS.coding.display</t>
+  </si>
+  <si>
+    <t>Observation.category:CurrentAge_UMLS.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.category:CurrentAge_UMLS.text</t>
+  </si>
+  <si>
+    <t>Observation.category:CurrentAge_SNOMED</t>
+  </si>
+  <si>
+    <t>CurrentAge_SNOMED</t>
+  </si>
+  <si>
+    <t>Observation.category:CurrentAge_SNOMED.id</t>
+  </si>
+  <si>
+    <t>Observation.category:CurrentAge_SNOMED.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:CurrentAge_SNOMED.coding</t>
+  </si>
+  <si>
+    <t>Observation.category:CurrentAge_SNOMED.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.category:CurrentAge_SNOMED.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:CurrentAge_SNOMED.coding.system</t>
+  </si>
+  <si>
+    <t>Observation.category:CurrentAge_SNOMED.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.category:CurrentAge_SNOMED.coding.code</t>
   </si>
   <si>
     <t>424144002</t>
   </si>
   <si>
-    <t>Observation.category:CurrentAge.coding.display</t>
-  </si>
-  <si>
-    <t>Observation.category:CurrentAge.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Observation.category:CurrentAge.text</t>
+    <t>Observation.category:CurrentAge_SNOMED.coding.display</t>
+  </si>
+  <si>
+    <t>Observation.category:CurrentAge_SNOMED.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.category:CurrentAge_SNOMED.text</t>
   </si>
   <si>
     <t>Observation.category:Persons</t>
@@ -1028,9 +1115,6 @@
   </si>
   <si>
     <t>Observation.category:Count.coding.system</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/CodeSystem/umls</t>
   </si>
   <si>
     <t>Observation.category:Count.coding.version</t>
@@ -1157,7 +1241,7 @@
     <t>Observation.code.coding.system</t>
   </si>
   <si>
-    <t>https://loinc.org</t>
+    <t>http://loinc.org</t>
   </si>
   <si>
     <t>Observation.code.coding.version</t>
@@ -2399,7 +2483,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP130"/>
+  <dimension ref="A1:AP154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2408,9 +2492,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.14453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="58.99609375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="43.60546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="20.58203125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -6486,7 +6570,7 @@
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>243</v>
+        <v>300</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>82</v>
@@ -6563,7 +6647,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>248</v>
@@ -6683,7 +6767,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>256</v>
@@ -6728,7 +6812,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>82</v>
@@ -6805,7 +6889,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>266</v>
@@ -6927,7 +7011,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>274</v>
@@ -7049,7 +7133,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>284</v>
@@ -7171,13 +7255,13 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>82</v>
@@ -7295,7 +7379,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>214</v>
@@ -7413,7 +7497,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>220</v>
@@ -7533,7 +7617,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>224</v>
@@ -7655,7 +7739,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>234</v>
@@ -7773,7 +7857,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>236</v>
@@ -7893,7 +7977,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>238</v>
@@ -8015,7 +8099,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>248</v>
@@ -8135,7 +8219,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>256</v>
@@ -8180,7 +8264,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>82</v>
@@ -8257,7 +8341,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>266</v>
@@ -8379,7 +8463,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>274</v>
@@ -8501,7 +8585,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>284</v>
@@ -8623,13 +8707,13 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>82</v>
@@ -8747,7 +8831,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>214</v>
@@ -8865,7 +8949,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>220</v>
@@ -8985,7 +9069,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>224</v>
@@ -9107,7 +9191,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>234</v>
@@ -9225,7 +9309,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>236</v>
@@ -9345,7 +9429,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>238</v>
@@ -9390,7 +9474,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>328</v>
+        <v>300</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>82</v>
@@ -10842,7 +10926,7 @@
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
-        <v>243</v>
+        <v>300</v>
       </c>
       <c r="S70" t="s" s="2">
         <v>82</v>
@@ -11530,11 +11614,13 @@
         <v>349</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="C76" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="D76" t="s" s="2">
-        <v>350</v>
+        <v>82</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -11550,22 +11636,22 @@
         <v>82</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K76" t="s" s="2">
         <v>198</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>351</v>
+        <v>199</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>352</v>
+        <v>200</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>353</v>
+        <v>201</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>354</v>
+        <v>202</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>82</v>
@@ -11590,13 +11676,13 @@
         <v>82</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>355</v>
+        <v>119</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>356</v>
+        <v>203</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>357</v>
+        <v>204</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>82</v>
@@ -11614,13 +11700,13 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>349</v>
+        <v>196</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>104</v>
@@ -11629,30 +11715,30 @@
         <v>105</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>358</v>
+        <v>82</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>359</v>
+        <v>82</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>360</v>
+        <v>208</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>361</v>
+        <v>209</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>362</v>
+        <v>210</v>
       </c>
       <c r="AP76" t="s" s="2">
-        <v>363</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>364</v>
+        <v>214</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11767,10 +11853,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>365</v>
+        <v>220</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11887,10 +11973,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>366</v>
+        <v>224</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11904,7 +11990,7 @@
         <v>81</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>82</v>
@@ -12009,10 +12095,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>367</v>
+        <v>234</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12127,10 +12213,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>368</v>
+        <v>236</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12247,10 +12333,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>369</v>
+        <v>238</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12292,7 +12378,7 @@
       </c>
       <c r="Q82" s="2"/>
       <c r="R82" t="s" s="2">
-        <v>370</v>
+        <v>243</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>82</v>
@@ -12369,10 +12455,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>371</v>
+        <v>248</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12489,10 +12575,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>372</v>
+        <v>256</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12534,7 +12620,7 @@
       </c>
       <c r="Q84" s="2"/>
       <c r="R84" t="s" s="2">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="S84" t="s" s="2">
         <v>82</v>
@@ -12611,10 +12697,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>374</v>
+        <v>266</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12733,10 +12819,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>375</v>
+        <v>274</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12855,10 +12941,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>376</v>
+        <v>284</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12866,13 +12952,13 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>82</v>
@@ -12903,7 +12989,7 @@
         <v>82</v>
       </c>
       <c r="S87" t="s" s="2">
-        <v>377</v>
+        <v>82</v>
       </c>
       <c r="T87" t="s" s="2">
         <v>82</v>
@@ -12977,12 +13063,14 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="C88" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="C88" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="D88" t="s" s="2">
         <v>82</v>
       </c>
@@ -13000,22 +13088,22 @@
         <v>82</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>379</v>
+        <v>198</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>380</v>
+        <v>199</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>381</v>
+        <v>200</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>382</v>
+        <v>201</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>383</v>
+        <v>202</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>82</v>
@@ -13040,13 +13128,13 @@
         <v>82</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>82</v>
+        <v>204</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>82</v>
@@ -13064,34 +13152,34 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>378</v>
+        <v>196</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>384</v>
+        <v>82</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>385</v>
+        <v>208</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>386</v>
+        <v>209</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>387</v>
+        <v>210</v>
       </c>
       <c r="AP88" t="s" s="2">
         <v>82</v>
@@ -13099,10 +13187,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>388</v>
+        <v>365</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>388</v>
+        <v>214</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13113,7 +13201,7 @@
         <v>80</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>82</v>
@@ -13122,20 +13210,18 @@
         <v>82</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>389</v>
+        <v>215</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>390</v>
+        <v>216</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>392</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N89" s="2"/>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>82</v>
@@ -13184,19 +13270,19 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>388</v>
+        <v>218</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>170</v>
+        <v>82</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>82</v>
@@ -13205,13 +13291,13 @@
         <v>82</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>360</v>
+        <v>82</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>393</v>
+        <v>113</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>387</v>
+        <v>82</v>
       </c>
       <c r="AP89" t="s" s="2">
         <v>82</v>
@@ -13219,21 +13305,21 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>394</v>
+        <v>366</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>394</v>
+        <v>220</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>395</v>
+        <v>139</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>82</v>
@@ -13242,23 +13328,21 @@
         <v>82</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>396</v>
+        <v>140</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>397</v>
+        <v>141</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>398</v>
+        <v>221</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>82</v>
       </c>
@@ -13294,46 +13378,46 @@
         <v>82</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC90" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>394</v>
+        <v>222</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>401</v>
+        <v>82</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>402</v>
+        <v>82</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>403</v>
+        <v>106</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>404</v>
+        <v>82</v>
       </c>
       <c r="AP90" t="s" s="2">
         <v>82</v>
@@ -13341,21 +13425,21 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>405</v>
+        <v>367</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>405</v>
+        <v>224</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>406</v>
+        <v>82</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>82</v>
@@ -13367,19 +13451,19 @@
         <v>93</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>407</v>
+        <v>225</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>408</v>
+        <v>226</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>409</v>
+        <v>227</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>410</v>
+        <v>228</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>411</v>
+        <v>229</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>82</v>
@@ -13428,13 +13512,13 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>405</v>
+        <v>230</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>104</v>
@@ -13443,19 +13527,19 @@
         <v>105</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>412</v>
+        <v>82</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>413</v>
+        <v>231</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>414</v>
+        <v>232</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>415</v>
+        <v>82</v>
       </c>
       <c r="AP91" t="s" s="2">
         <v>82</v>
@@ -13463,10 +13547,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>416</v>
+        <v>368</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>416</v>
+        <v>234</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13486,20 +13570,18 @@
         <v>82</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>417</v>
+        <v>215</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>418</v>
+        <v>216</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>420</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N92" s="2"/>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>82</v>
@@ -13548,7 +13630,7 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>416</v>
+        <v>218</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13557,10 +13639,10 @@
         <v>92</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>82</v>
@@ -13569,13 +13651,13 @@
         <v>82</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>421</v>
+        <v>82</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>422</v>
+        <v>113</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>423</v>
+        <v>82</v>
       </c>
       <c r="AP92" t="s" s="2">
         <v>82</v>
@@ -13583,14 +13665,14 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>424</v>
+        <v>369</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>424</v>
+        <v>236</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -13606,23 +13688,21 @@
         <v>82</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>425</v>
+        <v>140</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>426</v>
+        <v>141</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>427</v>
+        <v>221</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>428</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>82</v>
       </c>
@@ -13658,19 +13738,19 @@
         <v>82</v>
       </c>
       <c r="AB93" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC93" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>424</v>
+        <v>222</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13682,22 +13762,22 @@
         <v>104</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>429</v>
+        <v>82</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>430</v>
+        <v>82</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>431</v>
+        <v>106</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>432</v>
+        <v>82</v>
       </c>
       <c r="AP93" t="s" s="2">
         <v>82</v>
@@ -13705,10 +13785,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>433</v>
+        <v>370</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>433</v>
+        <v>238</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13716,7 +13796,7 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>92</v>
@@ -13731,26 +13811,26 @@
         <v>93</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>434</v>
+        <v>108</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>435</v>
+        <v>239</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>436</v>
+        <v>240</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>437</v>
+        <v>241</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>438</v>
+        <v>242</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q94" s="2"/>
       <c r="R94" t="s" s="2">
-        <v>82</v>
+        <v>300</v>
       </c>
       <c r="S94" t="s" s="2">
         <v>82</v>
@@ -13780,17 +13860,19 @@
         <v>82</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AC94" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>433</v>
+        <v>244</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13799,7 +13881,7 @@
         <v>92</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>440</v>
+        <v>104</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>105</v>
@@ -13808,31 +13890,29 @@
         <v>82</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>441</v>
+        <v>82</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>442</v>
+        <v>245</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>443</v>
+        <v>246</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP94" t="s" s="2">
-        <v>444</v>
+        <v>82</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>445</v>
+        <v>371</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="C95" t="s" s="2">
-        <v>446</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
         <v>82</v>
       </c>
@@ -13853,20 +13933,18 @@
         <v>93</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>447</v>
+        <v>215</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>435</v>
+        <v>249</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>436</v>
+        <v>250</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>438</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>82</v>
       </c>
@@ -13914,7 +13992,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>433</v>
+        <v>252</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13923,36 +14001,36 @@
         <v>92</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>440</v>
+        <v>104</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>441</v>
+        <v>82</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>442</v>
+        <v>253</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>443</v>
+        <v>254</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP95" t="s" s="2">
-        <v>444</v>
+        <v>82</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>448</v>
+        <v>372</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>449</v>
+        <v>256</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13960,7 +14038,7 @@
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>92</v>
@@ -13972,25 +14050,29 @@
         <v>82</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="P96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q96" s="2"/>
       <c r="R96" t="s" s="2">
-        <v>82</v>
+        <v>373</v>
       </c>
       <c r="S96" t="s" s="2">
         <v>82</v>
@@ -14032,7 +14114,7 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>218</v>
+        <v>262</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -14041,10 +14123,10 @@
         <v>92</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>82</v>
@@ -14053,10 +14135,10 @@
         <v>82</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>82</v>
+        <v>263</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>113</v>
+        <v>264</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>82</v>
@@ -14067,21 +14149,21 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>450</v>
+        <v>374</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>451</v>
+        <v>266</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>82</v>
@@ -14090,21 +14172,23 @@
         <v>82</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>141</v>
+        <v>267</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>221</v>
+        <v>268</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O97" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="P97" t="s" s="2">
         <v>82</v>
       </c>
@@ -14140,31 +14224,31 @@
         <v>82</v>
       </c>
       <c r="AB97" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC97" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD97" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>222</v>
+        <v>270</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>82</v>
@@ -14173,10 +14257,10 @@
         <v>82</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>82</v>
+        <v>271</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>106</v>
+        <v>272</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>82</v>
@@ -14187,10 +14271,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>452</v>
+        <v>375</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>453</v>
+        <v>274</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14198,13 +14282,13 @@
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I98" t="s" s="2">
         <v>82</v>
@@ -14213,19 +14297,19 @@
         <v>93</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>454</v>
+        <v>275</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>455</v>
+        <v>276</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>456</v>
+        <v>277</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>457</v>
+        <v>278</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>458</v>
+        <v>279</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -14274,7 +14358,7 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>459</v>
+        <v>280</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14295,10 +14379,10 @@
         <v>82</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>460</v>
+        <v>281</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>461</v>
+        <v>282</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>82</v>
@@ -14309,10 +14393,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>462</v>
+        <v>376</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>463</v>
+        <v>284</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14329,32 +14413,30 @@
         <v>82</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J99" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>115</v>
+        <v>215</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>464</v>
+        <v>285</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>465</v>
+        <v>286</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>466</v>
+        <v>288</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q99" t="s" s="2">
-        <v>467</v>
-      </c>
+      <c r="Q99" s="2"/>
       <c r="R99" t="s" s="2">
         <v>82</v>
       </c>
@@ -14374,13 +14456,13 @@
         <v>82</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>188</v>
+        <v>82</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>468</v>
+        <v>82</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>469</v>
+        <v>82</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>82</v>
@@ -14398,7 +14480,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>470</v>
+        <v>289</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14419,10 +14501,10 @@
         <v>82</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>471</v>
+        <v>290</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>472</v>
+        <v>291</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>82</v>
@@ -14433,14 +14515,14 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>473</v>
+        <v>377</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>474</v>
+        <v>377</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>82</v>
+        <v>378</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
@@ -14459,19 +14541,19 @@
         <v>93</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>475</v>
+        <v>379</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>476</v>
+        <v>380</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>259</v>
+        <v>381</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>477</v>
+        <v>382</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>82</v>
@@ -14496,13 +14578,13 @@
         <v>82</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>82</v>
+        <v>383</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>82</v>
+        <v>384</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>82</v>
+        <v>385</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>82</v>
@@ -14520,10 +14602,10 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>478</v>
+        <v>377</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>92</v>
@@ -14535,30 +14617,30 @@
         <v>105</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>82</v>
+        <v>386</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>82</v>
+        <v>387</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>479</v>
+        <v>388</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>480</v>
+        <v>389</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>82</v>
+        <v>390</v>
       </c>
       <c r="AP100" t="s" s="2">
-        <v>82</v>
+        <v>391</v>
       </c>
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>481</v>
+        <v>392</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>482</v>
+        <v>392</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14566,41 +14648,37 @@
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G101" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H101" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I101" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>108</v>
+        <v>215</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>483</v>
+        <v>216</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>486</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q101" s="2"/>
       <c r="R101" t="s" s="2">
-        <v>487</v>
+        <v>82</v>
       </c>
       <c r="S101" t="s" s="2">
         <v>82</v>
@@ -14642,7 +14720,7 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>488</v>
+        <v>218</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14651,10 +14729,10 @@
         <v>92</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>489</v>
+        <v>82</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>82</v>
@@ -14663,10 +14741,10 @@
         <v>82</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>479</v>
+        <v>82</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>490</v>
+        <v>113</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>82</v>
@@ -14677,52 +14755,50 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>491</v>
+        <v>393</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>492</v>
+        <v>393</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H102" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I102" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>493</v>
+        <v>141</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>493</v>
+        <v>221</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>495</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q102" s="2"/>
       <c r="R102" t="s" s="2">
-        <v>496</v>
+        <v>82</v>
       </c>
       <c r="S102" t="s" s="2">
         <v>82</v>
@@ -14752,31 +14828,31 @@
         <v>82</v>
       </c>
       <c r="AB102" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC102" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD102" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>497</v>
+        <v>222</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>82</v>
@@ -14785,10 +14861,10 @@
         <v>82</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>479</v>
+        <v>82</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>498</v>
+        <v>106</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>82</v>
@@ -14799,10 +14875,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>499</v>
+        <v>394</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>499</v>
+        <v>394</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14810,10 +14886,10 @@
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>93</v>
@@ -14822,22 +14898,22 @@
         <v>82</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>500</v>
+        <v>226</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>501</v>
+        <v>227</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>502</v>
+        <v>228</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>503</v>
+        <v>229</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>82</v>
@@ -14862,11 +14938,13 @@
         <v>82</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="Y103" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z103" t="s" s="2">
-        <v>504</v>
+        <v>82</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>82</v>
@@ -14884,16 +14962,16 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>499</v>
+        <v>230</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>505</v>
+        <v>104</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>105</v>
@@ -14905,10 +14983,10 @@
         <v>82</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>106</v>
+        <v>231</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>506</v>
+        <v>232</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>82</v>
@@ -14919,21 +14997,21 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>507</v>
+        <v>395</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>507</v>
+        <v>395</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>508</v>
+        <v>82</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>82</v>
@@ -14945,20 +15023,16 @@
         <v>82</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>509</v>
+        <v>216</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="O104" t="s" s="2">
-        <v>512</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N104" s="2"/>
+      <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
         <v>82</v>
       </c>
@@ -14982,13 +15056,13 @@
         <v>82</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>513</v>
+        <v>82</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>514</v>
+        <v>82</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>515</v>
+        <v>82</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>82</v>
@@ -15006,49 +15080,49 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>507</v>
+        <v>218</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>516</v>
+        <v>82</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>517</v>
+        <v>82</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>518</v>
+        <v>113</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP104" t="s" s="2">
-        <v>519</v>
+        <v>82</v>
       </c>
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>520</v>
+        <v>396</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>520</v>
+        <v>396</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -15067,20 +15141,18 @@
         <v>82</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>521</v>
+        <v>140</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>522</v>
+        <v>141</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>523</v>
+        <v>221</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>525</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
         <v>82</v>
       </c>
@@ -15116,19 +15188,19 @@
         <v>82</v>
       </c>
       <c r="AB105" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC105" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD105" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>520</v>
+        <v>222</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15140,7 +15212,7 @@
         <v>104</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>82</v>
@@ -15149,10 +15221,10 @@
         <v>82</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>526</v>
+        <v>82</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>527</v>
+        <v>106</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>82</v>
@@ -15163,10 +15235,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>528</v>
+        <v>397</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>528</v>
+        <v>397</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15174,7 +15246,7 @@
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>92</v>
@@ -15186,27 +15258,29 @@
         <v>82</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>198</v>
+        <v>108</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>529</v>
+        <v>239</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>530</v>
+        <v>240</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="O106" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="O106" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="P106" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q106" s="2"/>
       <c r="R106" t="s" s="2">
-        <v>82</v>
+        <v>398</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>82</v>
@@ -15224,13 +15298,13 @@
         <v>82</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>355</v>
+        <v>82</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>532</v>
+        <v>82</v>
       </c>
       <c r="Z106" t="s" s="2">
-        <v>533</v>
+        <v>82</v>
       </c>
       <c r="AA106" t="s" s="2">
         <v>82</v>
@@ -15248,7 +15322,7 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>528</v>
+        <v>244</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15266,27 +15340,27 @@
         <v>82</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>534</v>
+        <v>82</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>535</v>
+        <v>245</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>536</v>
+        <v>246</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP106" t="s" s="2">
-        <v>537</v>
+        <v>82</v>
       </c>
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>538</v>
+        <v>399</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>538</v>
+        <v>399</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15306,23 +15380,21 @@
         <v>82</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>539</v>
+        <v>249</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>540</v>
+        <v>250</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>542</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
         <v>82</v>
       </c>
@@ -15346,13 +15418,13 @@
         <v>82</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>355</v>
+        <v>82</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>543</v>
+        <v>82</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>544</v>
+        <v>82</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>82</v>
@@ -15370,7 +15442,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>538</v>
+        <v>252</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15391,10 +15463,10 @@
         <v>82</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>545</v>
+        <v>253</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>546</v>
+        <v>254</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>82</v>
@@ -15405,10 +15477,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>547</v>
+        <v>400</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>547</v>
+        <v>400</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15416,7 +15488,7 @@
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>92</v>
@@ -15428,27 +15500,29 @@
         <v>82</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>548</v>
+        <v>115</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>549</v>
+        <v>257</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>550</v>
+        <v>258</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="O108" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="O108" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="P108" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q108" s="2"/>
       <c r="R108" t="s" s="2">
-        <v>82</v>
+        <v>401</v>
       </c>
       <c r="S108" t="s" s="2">
         <v>82</v>
@@ -15490,7 +15564,7 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>547</v>
+        <v>262</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15502,33 +15576,33 @@
         <v>104</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>552</v>
+        <v>82</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>553</v>
+        <v>263</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>554</v>
+        <v>264</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP108" t="s" s="2">
-        <v>555</v>
+        <v>82</v>
       </c>
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>556</v>
+        <v>402</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>556</v>
+        <v>402</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15548,21 +15622,23 @@
         <v>82</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>557</v>
+        <v>215</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>558</v>
+        <v>267</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>559</v>
+        <v>268</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="O109" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="O109" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="P109" t="s" s="2">
         <v>82</v>
       </c>
@@ -15610,7 +15686,7 @@
         <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>556</v>
+        <v>270</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
@@ -15622,33 +15698,33 @@
         <v>104</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>561</v>
+        <v>82</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>562</v>
+        <v>271</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>563</v>
+        <v>272</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP109" t="s" s="2">
-        <v>564</v>
+        <v>82</v>
       </c>
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>565</v>
+        <v>403</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>565</v>
+        <v>403</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15659,7 +15735,7 @@
         <v>80</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>82</v>
@@ -15668,22 +15744,22 @@
         <v>82</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>566</v>
+        <v>275</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>567</v>
+        <v>276</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>568</v>
+        <v>277</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>569</v>
+        <v>278</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>570</v>
+        <v>279</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>82</v>
@@ -15732,19 +15808,19 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>565</v>
+        <v>280</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>571</v>
+        <v>105</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>82</v>
@@ -15753,10 +15829,10 @@
         <v>82</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>572</v>
+        <v>281</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>573</v>
+        <v>282</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>82</v>
@@ -15767,10 +15843,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>574</v>
+        <v>404</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>574</v>
+        <v>404</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15778,31 +15854,35 @@
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G111" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H111" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I111" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K111" t="s" s="2">
         <v>215</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>216</v>
+        <v>285</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N111" s="2"/>
-      <c r="O111" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="O111" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="P111" t="s" s="2">
         <v>82</v>
       </c>
@@ -15811,7 +15891,7 @@
         <v>82</v>
       </c>
       <c r="S111" t="s" s="2">
-        <v>82</v>
+        <v>405</v>
       </c>
       <c r="T111" t="s" s="2">
         <v>82</v>
@@ -15850,7 +15930,7 @@
         <v>82</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>218</v>
+        <v>289</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
@@ -15859,10 +15939,10 @@
         <v>92</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>82</v>
@@ -15871,10 +15951,10 @@
         <v>82</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>82</v>
+        <v>290</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>113</v>
+        <v>291</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>82</v>
@@ -15885,44 +15965,46 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>575</v>
+        <v>406</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>575</v>
+        <v>406</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H112" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I112" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>140</v>
+        <v>407</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>141</v>
+        <v>408</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>221</v>
+        <v>409</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O112" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="O112" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="P112" t="s" s="2">
         <v>82</v>
       </c>
@@ -15958,46 +16040,46 @@
         <v>82</v>
       </c>
       <c r="AB112" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC112" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD112" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>222</v>
+        <v>406</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>82</v>
+        <v>412</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>82</v>
+        <v>413</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>106</v>
+        <v>414</v>
       </c>
       <c r="AO112" t="s" s="2">
-        <v>82</v>
+        <v>415</v>
       </c>
       <c r="AP112" t="s" s="2">
         <v>82</v>
@@ -16005,14 +16087,14 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>576</v>
+        <v>416</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>576</v>
+        <v>416</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>577</v>
+        <v>82</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
@@ -16025,26 +16107,24 @@
         <v>82</v>
       </c>
       <c r="I113" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J113" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>140</v>
+        <v>417</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>578</v>
+        <v>418</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>579</v>
+        <v>419</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O113" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
         <v>82</v>
       </c>
@@ -16092,7 +16172,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>580</v>
+        <v>416</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -16104,7 +16184,7 @@
         <v>104</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>82</v>
@@ -16113,13 +16193,13 @@
         <v>82</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>82</v>
+        <v>388</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>106</v>
+        <v>421</v>
       </c>
       <c r="AO113" t="s" s="2">
-        <v>82</v>
+        <v>415</v>
       </c>
       <c r="AP113" t="s" s="2">
         <v>82</v>
@@ -16127,14 +16207,14 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>581</v>
+        <v>422</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>581</v>
+        <v>422</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
-        <v>82</v>
+        <v>423</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
@@ -16150,21 +16230,23 @@
         <v>82</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>582</v>
+        <v>424</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>583</v>
+        <v>425</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>584</v>
+        <v>426</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="O114" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="O114" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="P114" t="s" s="2">
         <v>82</v>
       </c>
@@ -16212,7 +16294,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>581</v>
+        <v>422</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16221,25 +16303,25 @@
         <v>92</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>586</v>
+        <v>104</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>587</v>
+        <v>170</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>82</v>
+        <v>429</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>588</v>
+        <v>430</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>589</v>
+        <v>431</v>
       </c>
       <c r="AO114" t="s" s="2">
-        <v>82</v>
+        <v>432</v>
       </c>
       <c r="AP114" t="s" s="2">
         <v>82</v>
@@ -16247,14 +16329,14 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>590</v>
+        <v>433</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>590</v>
+        <v>433</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
-        <v>82</v>
+        <v>434</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
@@ -16270,21 +16352,23 @@
         <v>82</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>582</v>
+        <v>435</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>591</v>
+        <v>436</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>592</v>
+        <v>437</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="O115" s="2"/>
+        <v>438</v>
+      </c>
+      <c r="O115" t="s" s="2">
+        <v>439</v>
+      </c>
       <c r="P115" t="s" s="2">
         <v>82</v>
       </c>
@@ -16332,7 +16416,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>590</v>
+        <v>433</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16341,25 +16425,25 @@
         <v>92</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>586</v>
+        <v>104</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>587</v>
+        <v>105</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>82</v>
+        <v>440</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>588</v>
+        <v>441</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>593</v>
+        <v>442</v>
       </c>
       <c r="AO115" t="s" s="2">
-        <v>82</v>
+        <v>443</v>
       </c>
       <c r="AP115" t="s" s="2">
         <v>82</v>
@@ -16367,10 +16451,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>594</v>
+        <v>444</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>594</v>
+        <v>444</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16390,23 +16474,21 @@
         <v>82</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>198</v>
+        <v>445</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>595</v>
+        <v>446</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>596</v>
+        <v>447</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="O116" t="s" s="2">
-        <v>598</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
         <v>82</v>
       </c>
@@ -16430,13 +16512,13 @@
         <v>82</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>599</v>
+        <v>82</v>
       </c>
       <c r="Z116" t="s" s="2">
-        <v>600</v>
+        <v>82</v>
       </c>
       <c r="AA116" t="s" s="2">
         <v>82</v>
@@ -16454,7 +16536,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>594</v>
+        <v>444</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16472,16 +16554,16 @@
         <v>82</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>601</v>
+        <v>82</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>602</v>
+        <v>449</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>518</v>
+        <v>450</v>
       </c>
       <c r="AO116" t="s" s="2">
-        <v>82</v>
+        <v>451</v>
       </c>
       <c r="AP116" t="s" s="2">
         <v>82</v>
@@ -16489,10 +16571,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>603</v>
+        <v>452</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>603</v>
+        <v>452</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16512,22 +16594,22 @@
         <v>82</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>198</v>
+        <v>453</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>604</v>
+        <v>454</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>605</v>
+        <v>455</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>606</v>
+        <v>168</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>607</v>
+        <v>456</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>82</v>
@@ -16552,13 +16634,13 @@
         <v>82</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>355</v>
+        <v>82</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>608</v>
+        <v>82</v>
       </c>
       <c r="Z117" t="s" s="2">
-        <v>609</v>
+        <v>82</v>
       </c>
       <c r="AA117" t="s" s="2">
         <v>82</v>
@@ -16576,7 +16658,7 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>603</v>
+        <v>452</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -16588,22 +16670,22 @@
         <v>104</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>82</v>
+        <v>457</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>601</v>
+        <v>82</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>602</v>
+        <v>458</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>518</v>
+        <v>459</v>
       </c>
       <c r="AO117" t="s" s="2">
-        <v>82</v>
+        <v>460</v>
       </c>
       <c r="AP117" t="s" s="2">
         <v>82</v>
@@ -16611,10 +16693,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>610</v>
+        <v>461</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>610</v>
+        <v>461</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16634,22 +16716,22 @@
         <v>82</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>611</v>
+        <v>462</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>612</v>
+        <v>463</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>613</v>
+        <v>464</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>614</v>
+        <v>465</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>615</v>
+        <v>466</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>82</v>
@@ -16686,19 +16768,17 @@
         <v>82</v>
       </c>
       <c r="AB118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC118" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="AC118" s="2"/>
       <c r="AD118" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>610</v>
+        <v>461</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -16707,38 +16787,40 @@
         <v>92</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>104</v>
+        <v>468</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>616</v>
+        <v>105</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>82</v>
+        <v>469</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>617</v>
+        <v>470</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>618</v>
+        <v>471</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP118" t="s" s="2">
-        <v>82</v>
+        <v>472</v>
       </c>
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>619</v>
+        <v>473</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="C119" s="2"/>
+        <v>461</v>
+      </c>
+      <c r="C119" t="s" s="2">
+        <v>474</v>
+      </c>
       <c r="D119" t="s" s="2">
         <v>82</v>
       </c>
@@ -16756,21 +16838,23 @@
         <v>82</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>215</v>
+        <v>475</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>620</v>
+        <v>463</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>621</v>
+        <v>464</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O119" s="2"/>
+        <v>465</v>
+      </c>
+      <c r="O119" t="s" s="2">
+        <v>466</v>
+      </c>
       <c r="P119" t="s" s="2">
         <v>82</v>
       </c>
@@ -16818,7 +16902,7 @@
         <v>82</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>619</v>
+        <v>461</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
@@ -16827,36 +16911,36 @@
         <v>92</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>104</v>
+        <v>468</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK119" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>82</v>
+        <v>469</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>588</v>
+        <v>470</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>622</v>
+        <v>471</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP119" t="s" s="2">
-        <v>82</v>
+        <v>472</v>
       </c>
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>623</v>
+        <v>476</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>623</v>
+        <v>477</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16867,7 +16951,7 @@
         <v>80</v>
       </c>
       <c r="G120" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H120" t="s" s="2">
         <v>82</v>
@@ -16876,20 +16960,18 @@
         <v>82</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>624</v>
+        <v>215</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>625</v>
+        <v>216</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>627</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N120" s="2"/>
       <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
         <v>82</v>
@@ -16938,19 +17020,19 @@
         <v>82</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>623</v>
+        <v>218</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH120" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>170</v>
+        <v>82</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>82</v>
@@ -16959,10 +17041,10 @@
         <v>82</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>628</v>
+        <v>82</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>629</v>
+        <v>113</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>82</v>
@@ -16973,14 +17055,14 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>630</v>
+        <v>478</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>630</v>
+        <v>479</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
@@ -16996,19 +17078,19 @@
         <v>82</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>631</v>
+        <v>140</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>632</v>
+        <v>141</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>633</v>
+        <v>221</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>634</v>
+        <v>143</v>
       </c>
       <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
@@ -17046,19 +17128,19 @@
         <v>82</v>
       </c>
       <c r="AB121" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC121" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD121" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>630</v>
+        <v>222</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -17070,7 +17152,7 @@
         <v>104</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>82</v>
@@ -17079,10 +17161,10 @@
         <v>82</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>628</v>
+        <v>82</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>635</v>
+        <v>106</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>82</v>
@@ -17093,10 +17175,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>636</v>
+        <v>480</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>636</v>
+        <v>481</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17104,13 +17186,13 @@
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G122" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H122" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I122" t="s" s="2">
         <v>82</v>
@@ -17119,19 +17201,19 @@
         <v>93</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>566</v>
+        <v>482</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>637</v>
+        <v>483</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>638</v>
+        <v>484</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>639</v>
+        <v>485</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>640</v>
+        <v>486</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>82</v>
@@ -17180,13 +17262,13 @@
         <v>82</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>636</v>
+        <v>487</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH122" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI122" t="s" s="2">
         <v>104</v>
@@ -17201,10 +17283,10 @@
         <v>82</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>641</v>
+        <v>488</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>642</v>
+        <v>489</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>82</v>
@@ -17215,10 +17297,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>643</v>
+        <v>490</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>643</v>
+        <v>491</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17235,26 +17317,32 @@
         <v>82</v>
       </c>
       <c r="I123" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>216</v>
+        <v>492</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N123" s="2"/>
-      <c r="O123" s="2"/>
+        <v>493</v>
+      </c>
+      <c r="N123" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O123" t="s" s="2">
+        <v>494</v>
+      </c>
       <c r="P123" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q123" s="2"/>
+      <c r="Q123" t="s" s="2">
+        <v>495</v>
+      </c>
       <c r="R123" t="s" s="2">
         <v>82</v>
       </c>
@@ -17274,13 +17362,13 @@
         <v>82</v>
       </c>
       <c r="X123" t="s" s="2">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c r="Y123" t="s" s="2">
-        <v>82</v>
+        <v>496</v>
       </c>
       <c r="Z123" t="s" s="2">
-        <v>82</v>
+        <v>497</v>
       </c>
       <c r="AA123" t="s" s="2">
         <v>82</v>
@@ -17298,7 +17386,7 @@
         <v>82</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>218</v>
+        <v>498</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>80</v>
@@ -17307,10 +17395,10 @@
         <v>92</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>82</v>
@@ -17319,10 +17407,10 @@
         <v>82</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>82</v>
+        <v>499</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>113</v>
+        <v>500</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>82</v>
@@ -17333,44 +17421,46 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>644</v>
+        <v>501</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>644</v>
+        <v>502</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G124" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H124" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I124" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>141</v>
+        <v>503</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>221</v>
+        <v>504</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O124" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="O124" t="s" s="2">
+        <v>505</v>
+      </c>
       <c r="P124" t="s" s="2">
         <v>82</v>
       </c>
@@ -17406,31 +17496,31 @@
         <v>82</v>
       </c>
       <c r="AB124" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC124" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD124" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>222</v>
+        <v>506</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI124" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK124" t="s" s="2">
         <v>82</v>
@@ -17439,10 +17529,10 @@
         <v>82</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>82</v>
+        <v>507</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>106</v>
+        <v>508</v>
       </c>
       <c r="AO124" t="s" s="2">
         <v>82</v>
@@ -17453,52 +17543,52 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>645</v>
+        <v>509</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>645</v>
+        <v>510</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
-        <v>577</v>
+        <v>82</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G125" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H125" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I125" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J125" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>578</v>
+        <v>511</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>579</v>
+        <v>512</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>143</v>
+        <v>513</v>
       </c>
       <c r="O125" t="s" s="2">
-        <v>152</v>
+        <v>514</v>
       </c>
       <c r="P125" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q125" s="2"/>
       <c r="R125" t="s" s="2">
-        <v>82</v>
+        <v>515</v>
       </c>
       <c r="S125" t="s" s="2">
         <v>82</v>
@@ -17540,19 +17630,19 @@
         <v>82</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>580</v>
+        <v>516</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>104</v>
+        <v>517</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK125" t="s" s="2">
         <v>82</v>
@@ -17561,10 +17651,10 @@
         <v>82</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>82</v>
+        <v>507</v>
       </c>
       <c r="AN125" t="s" s="2">
-        <v>106</v>
+        <v>518</v>
       </c>
       <c r="AO125" t="s" s="2">
         <v>82</v>
@@ -17575,10 +17665,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>646</v>
+        <v>519</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>646</v>
+        <v>520</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17592,7 +17682,7 @@
         <v>92</v>
       </c>
       <c r="H126" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I126" t="s" s="2">
         <v>82</v>
@@ -17601,26 +17691,26 @@
         <v>93</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>198</v>
+        <v>115</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>647</v>
+        <v>521</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>648</v>
+        <v>521</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>649</v>
+        <v>522</v>
       </c>
       <c r="O126" t="s" s="2">
-        <v>354</v>
+        <v>523</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q126" s="2"/>
       <c r="R126" t="s" s="2">
-        <v>82</v>
+        <v>524</v>
       </c>
       <c r="S126" t="s" s="2">
         <v>82</v>
@@ -17638,13 +17728,13 @@
         <v>82</v>
       </c>
       <c r="X126" t="s" s="2">
-        <v>355</v>
+        <v>82</v>
       </c>
       <c r="Y126" t="s" s="2">
-        <v>356</v>
+        <v>82</v>
       </c>
       <c r="Z126" t="s" s="2">
-        <v>357</v>
+        <v>82</v>
       </c>
       <c r="AA126" t="s" s="2">
         <v>82</v>
@@ -17662,10 +17752,10 @@
         <v>82</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>646</v>
+        <v>525</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>92</v>
@@ -17680,16 +17770,16 @@
         <v>82</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>650</v>
+        <v>82</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>360</v>
+        <v>507</v>
       </c>
       <c r="AN126" t="s" s="2">
-        <v>361</v>
+        <v>526</v>
       </c>
       <c r="AO126" t="s" s="2">
-        <v>362</v>
+        <v>82</v>
       </c>
       <c r="AP126" t="s" s="2">
         <v>82</v>
@@ -17697,10 +17787,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>651</v>
+        <v>527</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>651</v>
+        <v>527</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17714,28 +17804,28 @@
         <v>92</v>
       </c>
       <c r="H127" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I127" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>434</v>
+        <v>198</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>652</v>
+        <v>528</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>436</v>
+        <v>529</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>653</v>
+        <v>530</v>
       </c>
       <c r="O127" t="s" s="2">
-        <v>438</v>
+        <v>531</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>82</v>
@@ -17760,13 +17850,11 @@
         <v>82</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y127" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="Y127" s="2"/>
       <c r="Z127" t="s" s="2">
-        <v>82</v>
+        <v>532</v>
       </c>
       <c r="AA127" t="s" s="2">
         <v>82</v>
@@ -17784,7 +17872,7 @@
         <v>82</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>651</v>
+        <v>527</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>80</v>
@@ -17793,7 +17881,7 @@
         <v>92</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>104</v>
+        <v>533</v>
       </c>
       <c r="AJ127" t="s" s="2">
         <v>105</v>
@@ -17802,38 +17890,38 @@
         <v>82</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>654</v>
+        <v>82</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>442</v>
+        <v>106</v>
       </c>
       <c r="AN127" t="s" s="2">
-        <v>443</v>
+        <v>534</v>
       </c>
       <c r="AO127" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP127" t="s" s="2">
-        <v>444</v>
+        <v>82</v>
       </c>
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>655</v>
+        <v>535</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>655</v>
+        <v>535</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
-        <v>82</v>
+        <v>536</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G128" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H128" t="s" s="2">
         <v>82</v>
@@ -17848,16 +17936,16 @@
         <v>198</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>656</v>
+        <v>537</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>657</v>
+        <v>538</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>658</v>
+        <v>539</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>503</v>
+        <v>540</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>82</v>
@@ -17882,13 +17970,13 @@
         <v>82</v>
       </c>
       <c r="X128" t="s" s="2">
-        <v>513</v>
+        <v>541</v>
       </c>
       <c r="Y128" t="s" s="2">
-        <v>659</v>
+        <v>542</v>
       </c>
       <c r="Z128" t="s" s="2">
-        <v>660</v>
+        <v>543</v>
       </c>
       <c r="AA128" t="s" s="2">
         <v>82</v>
@@ -17906,16 +17994,16 @@
         <v>82</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>655</v>
+        <v>535</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH128" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>505</v>
+        <v>104</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>105</v>
@@ -17924,31 +18012,31 @@
         <v>82</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>82</v>
+        <v>544</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>106</v>
+        <v>545</v>
       </c>
       <c r="AN128" t="s" s="2">
-        <v>506</v>
+        <v>546</v>
       </c>
       <c r="AO128" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP128" t="s" s="2">
-        <v>82</v>
+        <v>547</v>
       </c>
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>661</v>
+        <v>548</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>661</v>
+        <v>548</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
-        <v>508</v>
+        <v>82</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" t="s" s="2">
@@ -17967,19 +18055,19 @@
         <v>82</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>198</v>
+        <v>549</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>509</v>
+        <v>550</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>510</v>
+        <v>551</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>511</v>
+        <v>552</v>
       </c>
       <c r="O129" t="s" s="2">
-        <v>512</v>
+        <v>553</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>82</v>
@@ -18004,13 +18092,13 @@
         <v>82</v>
       </c>
       <c r="X129" t="s" s="2">
-        <v>513</v>
+        <v>82</v>
       </c>
       <c r="Y129" t="s" s="2">
-        <v>514</v>
+        <v>82</v>
       </c>
       <c r="Z129" t="s" s="2">
-        <v>515</v>
+        <v>82</v>
       </c>
       <c r="AA129" t="s" s="2">
         <v>82</v>
@@ -18028,7 +18116,7 @@
         <v>82</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>661</v>
+        <v>548</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
@@ -18046,27 +18134,27 @@
         <v>82</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>516</v>
+        <v>82</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>517</v>
+        <v>554</v>
       </c>
       <c r="AN129" t="s" s="2">
-        <v>518</v>
+        <v>555</v>
       </c>
       <c r="AO129" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP129" t="s" s="2">
-        <v>519</v>
+        <v>82</v>
       </c>
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>662</v>
+        <v>556</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>662</v>
+        <v>556</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18077,7 +18165,7 @@
         <v>80</v>
       </c>
       <c r="G130" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H130" t="s" s="2">
         <v>82</v>
@@ -18089,20 +18177,18 @@
         <v>82</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>83</v>
+        <v>198</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>663</v>
+        <v>557</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>664</v>
+        <v>558</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="O130" t="s" s="2">
-        <v>570</v>
-      </c>
+        <v>559</v>
+      </c>
+      <c r="O130" s="2"/>
       <c r="P130" t="s" s="2">
         <v>82</v>
       </c>
@@ -18126,13 +18212,13 @@
         <v>82</v>
       </c>
       <c r="X130" t="s" s="2">
-        <v>82</v>
+        <v>383</v>
       </c>
       <c r="Y130" t="s" s="2">
-        <v>82</v>
+        <v>560</v>
       </c>
       <c r="Z130" t="s" s="2">
-        <v>82</v>
+        <v>561</v>
       </c>
       <c r="AA130" t="s" s="2">
         <v>82</v>
@@ -18150,41 +18236,2943 @@
         <v>82</v>
       </c>
       <c r="AF130" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AG130" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH130" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI130" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ130" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL130" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AM130" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AN130" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AO130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP130" t="s" s="2">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="131" hidden="true">
+      <c r="A131" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="B131" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="C131" s="2"/>
+      <c r="D131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E131" s="2"/>
+      <c r="F131" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G131" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K131" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L131" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="M131" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="N131" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="O131" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="P131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q131" s="2"/>
+      <c r="R131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X131" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="Y131" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="Z131" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="AA131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF131" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AG131" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH131" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI131" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ131" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM131" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AN131" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AO131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP131" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="132" hidden="true">
+      <c r="A132" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="B132" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="C132" s="2"/>
+      <c r="D132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E132" s="2"/>
+      <c r="F132" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G132" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K132" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="L132" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="M132" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="N132" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="O132" s="2"/>
+      <c r="P132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q132" s="2"/>
+      <c r="R132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF132" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AG132" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH132" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI132" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ132" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AK132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL132" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="AM132" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="AN132" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="AO132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP132" t="s" s="2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="133" hidden="true">
+      <c r="A133" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="B133" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="C133" s="2"/>
+      <c r="D133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E133" s="2"/>
+      <c r="F133" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G133" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K133" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="L133" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="M133" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="N133" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="O133" s="2"/>
+      <c r="P133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q133" s="2"/>
+      <c r="R133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF133" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="AG133" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH133" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI133" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ133" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AK133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL133" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AM133" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="AN133" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="AO133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP133" t="s" s="2">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="134" hidden="true">
+      <c r="A134" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="B134" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="C134" s="2"/>
+      <c r="D134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E134" s="2"/>
+      <c r="F134" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G134" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K134" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="L134" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="M134" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="N134" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="O134" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="P134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q134" s="2"/>
+      <c r="R134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF134" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="AG134" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH134" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI134" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ134" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="AK134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM134" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="AN134" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="AO134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP134" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="135" hidden="true">
+      <c r="A135" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="B135" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="C135" s="2"/>
+      <c r="D135" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E135" s="2"/>
+      <c r="F135" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G135" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H135" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I135" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J135" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K135" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L135" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M135" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="N135" s="2"/>
+      <c r="O135" s="2"/>
+      <c r="P135" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q135" s="2"/>
+      <c r="R135" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S135" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T135" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U135" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V135" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W135" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X135" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y135" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z135" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA135" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB135" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC135" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD135" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE135" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF135" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AG135" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH135" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI135" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ135" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK135" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL135" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM135" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN135" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AO135" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP135" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="136" hidden="true">
+      <c r="A136" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="B136" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="C136" s="2"/>
+      <c r="D136" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="E136" s="2"/>
+      <c r="F136" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G136" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H136" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I136" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J136" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K136" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L136" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M136" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N136" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O136" s="2"/>
+      <c r="P136" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q136" s="2"/>
+      <c r="R136" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S136" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T136" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U136" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V136" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W136" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X136" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y136" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z136" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA136" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB136" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AC136" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AD136" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE136" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AF136" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AG136" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH136" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI136" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ136" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AK136" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL136" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM136" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN136" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AO136" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP136" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="137" hidden="true">
+      <c r="A137" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="B137" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="C137" s="2"/>
+      <c r="D137" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="E137" s="2"/>
+      <c r="F137" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G137" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H137" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I137" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="J137" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K137" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L137" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="M137" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="N137" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O137" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="P137" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q137" s="2"/>
+      <c r="R137" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S137" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T137" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U137" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V137" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W137" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X137" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y137" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z137" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA137" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB137" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC137" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD137" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE137" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF137" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="AG137" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH137" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI137" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ137" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AK137" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL137" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM137" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN137" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AO137" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP137" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="138" hidden="true">
+      <c r="A138" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="B138" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="C138" s="2"/>
+      <c r="D138" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E138" s="2"/>
+      <c r="F138" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G138" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H138" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I138" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J138" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K138" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="L138" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="M138" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="N138" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="O138" s="2"/>
+      <c r="P138" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q138" s="2"/>
+      <c r="R138" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S138" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T138" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U138" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V138" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W138" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X138" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y138" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z138" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA138" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB138" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC138" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD138" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE138" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF138" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="AG138" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH138" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI138" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="AJ138" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="AK138" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL138" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM138" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="AN138" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="AO138" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP138" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="139" hidden="true">
+      <c r="A139" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="B139" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="C139" s="2"/>
+      <c r="D139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E139" s="2"/>
+      <c r="F139" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G139" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K139" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="L139" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="M139" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="N139" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="O139" s="2"/>
+      <c r="P139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q139" s="2"/>
+      <c r="R139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF139" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="AG139" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH139" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI139" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="AJ139" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="AK139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM139" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="AN139" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="AO139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP139" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="140" hidden="true">
+      <c r="A140" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="B140" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="C140" s="2"/>
+      <c r="D140" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E140" s="2"/>
+      <c r="F140" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G140" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H140" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I140" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J140" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K140" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L140" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="M140" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="N140" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="O140" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="P140" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q140" s="2"/>
+      <c r="R140" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S140" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T140" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U140" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V140" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W140" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X140" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="Y140" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="Z140" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="AA140" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB140" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC140" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD140" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE140" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF140" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="AG140" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH140" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI140" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ140" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK140" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL140" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="AM140" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="AN140" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AO140" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP140" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="141" hidden="true">
+      <c r="A141" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="B141" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="C141" s="2"/>
+      <c r="D141" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E141" s="2"/>
+      <c r="F141" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G141" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H141" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I141" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J141" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K141" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L141" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="M141" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="N141" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="O141" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="P141" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q141" s="2"/>
+      <c r="R141" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S141" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T141" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U141" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V141" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W141" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X141" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="Y141" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="Z141" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="AA141" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB141" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC141" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD141" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE141" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF141" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="AG141" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH141" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI141" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ141" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK141" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL141" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="AM141" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="AN141" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AO141" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP141" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="142" hidden="true">
+      <c r="A142" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="B142" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="C142" s="2"/>
+      <c r="D142" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E142" s="2"/>
+      <c r="F142" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G142" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H142" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I142" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J142" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K142" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="L142" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="M142" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="N142" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="O142" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="P142" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q142" s="2"/>
+      <c r="R142" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S142" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T142" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U142" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V142" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W142" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X142" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y142" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z142" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA142" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB142" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC142" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD142" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE142" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF142" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="AG142" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH142" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI142" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ142" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="AK142" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL142" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM142" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="AN142" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="AO142" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP142" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="143" hidden="true">
+      <c r="A143" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="B143" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="C143" s="2"/>
+      <c r="D143" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E143" s="2"/>
+      <c r="F143" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G143" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H143" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I143" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J143" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K143" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L143" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="M143" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="N143" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O143" s="2"/>
+      <c r="P143" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q143" s="2"/>
+      <c r="R143" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S143" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T143" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U143" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V143" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W143" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X143" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y143" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z143" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA143" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB143" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC143" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD143" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE143" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF143" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="AG143" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH143" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI143" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ143" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK143" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL143" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM143" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="AN143" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="AO143" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP143" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="144" hidden="true">
+      <c r="A144" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="B144" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="C144" s="2"/>
+      <c r="D144" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E144" s="2"/>
+      <c r="F144" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G144" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H144" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I144" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J144" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K144" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="L144" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="M144" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="N144" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="O144" s="2"/>
+      <c r="P144" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q144" s="2"/>
+      <c r="R144" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S144" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T144" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U144" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V144" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W144" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X144" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y144" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z144" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA144" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB144" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC144" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD144" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE144" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF144" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="AG144" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH144" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI144" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ144" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AK144" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL144" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM144" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="AN144" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="AO144" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP144" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="145" hidden="true">
+      <c r="A145" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="B145" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="C145" s="2"/>
+      <c r="D145" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E145" s="2"/>
+      <c r="F145" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G145" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H145" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I145" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J145" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K145" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="L145" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="M145" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="N145" t="s" s="2">
         <v>662</v>
       </c>
-      <c r="AG130" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH130" t="s" s="2">
+      <c r="O145" s="2"/>
+      <c r="P145" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q145" s="2"/>
+      <c r="R145" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S145" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T145" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U145" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V145" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W145" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X145" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y145" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z145" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA145" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB145" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC145" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD145" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE145" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF145" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="AG145" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH145" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AI130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM130" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="AN130" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="AO130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP130" t="s" s="2">
+      <c r="AI145" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ145" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AK145" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL145" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM145" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="AN145" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="AO145" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP145" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="146" hidden="true">
+      <c r="A146" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="B146" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="C146" s="2"/>
+      <c r="D146" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E146" s="2"/>
+      <c r="F146" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G146" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H146" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I146" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J146" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K146" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="L146" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="M146" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="N146" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="O146" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="P146" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q146" s="2"/>
+      <c r="R146" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S146" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T146" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U146" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V146" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W146" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X146" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y146" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z146" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA146" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB146" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC146" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD146" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE146" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF146" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="AG146" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH146" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI146" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ146" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK146" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL146" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM146" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="AN146" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="AO146" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP146" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="147" hidden="true">
+      <c r="A147" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="B147" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="C147" s="2"/>
+      <c r="D147" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E147" s="2"/>
+      <c r="F147" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G147" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H147" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I147" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J147" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K147" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L147" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M147" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="N147" s="2"/>
+      <c r="O147" s="2"/>
+      <c r="P147" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q147" s="2"/>
+      <c r="R147" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S147" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T147" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U147" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V147" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W147" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X147" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y147" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z147" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA147" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB147" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC147" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD147" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE147" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF147" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AG147" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH147" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI147" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ147" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK147" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL147" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM147" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN147" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AO147" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP147" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="148" hidden="true">
+      <c r="A148" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="B148" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="C148" s="2"/>
+      <c r="D148" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="E148" s="2"/>
+      <c r="F148" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G148" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H148" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I148" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J148" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K148" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L148" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M148" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N148" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O148" s="2"/>
+      <c r="P148" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q148" s="2"/>
+      <c r="R148" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S148" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T148" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U148" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V148" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W148" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X148" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y148" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z148" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA148" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB148" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AC148" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AD148" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE148" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AF148" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AG148" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH148" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI148" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ148" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AK148" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL148" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM148" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN148" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AO148" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP148" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="149" hidden="true">
+      <c r="A149" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B149" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="C149" s="2"/>
+      <c r="D149" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="E149" s="2"/>
+      <c r="F149" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G149" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H149" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I149" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="J149" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K149" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L149" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="M149" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="N149" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O149" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="P149" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q149" s="2"/>
+      <c r="R149" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S149" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T149" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U149" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V149" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W149" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X149" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y149" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z149" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA149" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB149" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC149" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD149" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE149" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF149" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="AG149" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH149" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI149" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ149" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AK149" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL149" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM149" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN149" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AO149" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP149" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="150" hidden="true">
+      <c r="A150" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="B150" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="C150" s="2"/>
+      <c r="D150" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E150" s="2"/>
+      <c r="F150" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G150" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H150" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I150" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J150" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K150" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L150" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="M150" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="N150" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="O150" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="P150" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q150" s="2"/>
+      <c r="R150" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S150" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T150" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U150" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V150" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W150" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X150" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="Y150" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="Z150" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AA150" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB150" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC150" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD150" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE150" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF150" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="AG150" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH150" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI150" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ150" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK150" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL150" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="AM150" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AN150" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AO150" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AP150" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="151" hidden="true">
+      <c r="A151" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="B151" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="C151" s="2"/>
+      <c r="D151" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E151" s="2"/>
+      <c r="F151" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G151" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H151" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I151" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J151" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K151" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="L151" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="M151" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="N151" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="O151" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="P151" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q151" s="2"/>
+      <c r="R151" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S151" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T151" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U151" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V151" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W151" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X151" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y151" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z151" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA151" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB151" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC151" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD151" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE151" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF151" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="AG151" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH151" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI151" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ151" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK151" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL151" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="AM151" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AN151" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AO151" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP151" t="s" s="2">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="152" hidden="true">
+      <c r="A152" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="B152" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="C152" s="2"/>
+      <c r="D152" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E152" s="2"/>
+      <c r="F152" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G152" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H152" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I152" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J152" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K152" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L152" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="M152" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="N152" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="O152" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="P152" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q152" s="2"/>
+      <c r="R152" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S152" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T152" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U152" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V152" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W152" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X152" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="Y152" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="Z152" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="AA152" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB152" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC152" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD152" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE152" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF152" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="AG152" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH152" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI152" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AJ152" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK152" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL152" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM152" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AN152" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AO152" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP152" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="153" hidden="true">
+      <c r="A153" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="B153" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="C153" s="2"/>
+      <c r="D153" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="E153" s="2"/>
+      <c r="F153" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G153" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H153" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I153" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J153" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K153" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L153" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="M153" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="N153" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="O153" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="P153" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q153" s="2"/>
+      <c r="R153" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S153" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T153" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U153" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V153" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W153" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X153" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="Y153" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="Z153" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AA153" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB153" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC153" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD153" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE153" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF153" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="AG153" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH153" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI153" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ153" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK153" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL153" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="AM153" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AN153" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AO153" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP153" t="s" s="2">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="154" hidden="true">
+      <c r="A154" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="B154" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="C154" s="2"/>
+      <c r="D154" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E154" s="2"/>
+      <c r="F154" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G154" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H154" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I154" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J154" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K154" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L154" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="M154" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="N154" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="O154" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="P154" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q154" s="2"/>
+      <c r="R154" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S154" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T154" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U154" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V154" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W154" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X154" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y154" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z154" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA154" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB154" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC154" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD154" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE154" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF154" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="AG154" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH154" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI154" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ154" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK154" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL154" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM154" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="AN154" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="AO154" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP154" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP130">
+  <autoFilter ref="A1:AP154">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -18194,7 +21182,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI129">
+  <conditionalFormatting sqref="A2:AI153">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-rv-age-in-years.xlsx
+++ b/output/StructureDefinition-rv-age-in-years.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T02:04:17+02:00</t>
+    <t>2023-03-30T13:05:19+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-rv-age-in-years.xlsx
+++ b/output/StructureDefinition-rv-age-in-years.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T13:05:19+02:00</t>
+    <t>2023-03-30T15:07:01+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -774,7 +774,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/CodeSystem/umls</t>
+    <t>http://www.nlm.nih.gov/research/umls/</t>
   </si>
   <si>
     <t>Coding.system</t>

--- a/output/StructureDefinition-rv-age-in-years.xlsx
+++ b/output/StructureDefinition-rv-age-in-years.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T15:07:01+02:00</t>
+    <t>2023-03-30T17:28:47+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-rv-age-in-years.xlsx
+++ b/output/StructureDefinition-rv-age-in-years.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T17:28:47+02:00</t>
+    <t>2023-03-30T20:16:43+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -774,7 +774,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://www.nlm.nih.gov/research/umls/</t>
+    <t>http://www.nlm.nih.gov/research/umls</t>
   </si>
   <si>
     <t>Coding.system</t>

--- a/output/StructureDefinition-rv-age-in-years.xlsx
+++ b/output/StructureDefinition-rv-age-in-years.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T20:16:43+02:00</t>
+    <t>2023-03-31T11:28:30+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-rv-age-in-years.xlsx
+++ b/output/StructureDefinition-rv-age-in-years.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T11:28:30+02:00</t>
+    <t>2023-03-31T15:03:50+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-rv-age-in-years.xlsx
+++ b/output/StructureDefinition-rv-age-in-years.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$154</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$155</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5967" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6006" uniqueCount="696">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T15:03:50+02:00</t>
+    <t>2023-04-02T11:40:39+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1357,8 +1357,8 @@
 </t>
   </si>
   <si>
-    <t>dateTime
-PeriodTiminginstant</t>
+    <t xml:space="preserve">dateTime
+</t>
   </si>
   <si>
     <t>Clinically relevant time/time-period for observation</t>
@@ -1373,6 +1373,13 @@
     <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>Event.occurrence[x]</t>
   </si>
   <si>
@@ -1383,6 +1390,12 @@
   </si>
   <si>
     <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>Observation.effective[x]:effectiveDateTime</t>
+  </si>
+  <si>
+    <t>effectiveDateTime</t>
   </si>
   <si>
     <t>Observation.issued</t>
@@ -1457,10 +1470,6 @@
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
     <t>ele-1
 obs-7</t>
   </si>
@@ -1509,7 +1518,7 @@
 </t>
   </si>
   <si>
-    <t>Jahre</t>
+    <t>Jahr(e)</t>
   </si>
   <si>
     <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
@@ -2483,7 +2492,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP154"/>
+  <dimension ref="A1:AP155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -16340,7 +16349,7 @@
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>92</v>
@@ -16404,16 +16413,14 @@
         <v>82</v>
       </c>
       <c r="AB115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC115" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="AC115" s="2"/>
       <c r="AD115" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>82</v>
+        <v>441</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>433</v>
@@ -16431,19 +16438,19 @@
         <v>105</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AO115" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AP115" t="s" s="2">
         <v>82</v>
@@ -16451,24 +16458,26 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="C116" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="C116" t="s" s="2">
+        <v>447</v>
+      </c>
       <c r="D116" t="s" s="2">
-        <v>82</v>
+        <v>434</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G116" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H116" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I116" t="s" s="2">
         <v>82</v>
@@ -16477,18 +16486,20 @@
         <v>93</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="O116" s="2"/>
+        <v>438</v>
+      </c>
+      <c r="O116" t="s" s="2">
+        <v>439</v>
+      </c>
       <c r="P116" t="s" s="2">
         <v>82</v>
       </c>
@@ -16536,7 +16547,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16551,19 +16562,19 @@
         <v>105</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>82</v>
+        <v>442</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="AO116" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="AP116" t="s" s="2">
         <v>82</v>
@@ -16571,10 +16582,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16585,7 +16596,7 @@
         <v>80</v>
       </c>
       <c r="G117" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H117" t="s" s="2">
         <v>82</v>
@@ -16597,20 +16608,18 @@
         <v>93</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="O117" t="s" s="2">
-        <v>456</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
         <v>82</v>
       </c>
@@ -16658,34 +16667,34 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI117" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>457</v>
+        <v>82</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="AO117" t="s" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="AP117" t="s" s="2">
         <v>82</v>
@@ -16693,10 +16702,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16707,7 +16716,7 @@
         <v>80</v>
       </c>
       <c r="G118" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H118" t="s" s="2">
         <v>82</v>
@@ -16719,19 +16728,19 @@
         <v>93</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>465</v>
+        <v>168</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>82</v>
@@ -16768,59 +16777,59 @@
         <v>82</v>
       </c>
       <c r="AB118" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="AC118" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC118" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD118" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AG118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH118" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI118" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AK118" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="AG118" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH118" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI118" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="AJ118" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK118" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AL118" t="s" s="2">
-        <v>469</v>
+        <v>82</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="AO118" t="s" s="2">
-        <v>82</v>
+        <v>464</v>
       </c>
       <c r="AP118" t="s" s="2">
-        <v>472</v>
+        <v>82</v>
       </c>
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="C119" t="s" s="2">
-        <v>474</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
         <v>82</v>
       </c>
@@ -16841,19 +16850,19 @@
         <v>93</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="O119" t="s" s="2">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>82</v>
@@ -16890,19 +16899,17 @@
         <v>82</v>
       </c>
       <c r="AB119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC119" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="AC119" s="2"/>
       <c r="AD119" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
@@ -16911,28 +16918,28 @@
         <v>92</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK119" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP119" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="120" hidden="true">
@@ -16940,9 +16947,11 @@
         <v>476</v>
       </c>
       <c r="B120" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="C120" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
         <v>82</v>
       </c>
@@ -16960,19 +16969,23 @@
         <v>82</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>215</v>
+        <v>478</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>216</v>
+        <v>467</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N120" s="2"/>
-      <c r="O120" s="2"/>
+        <v>468</v>
+      </c>
+      <c r="N120" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="O120" t="s" s="2">
+        <v>470</v>
+      </c>
       <c r="P120" t="s" s="2">
         <v>82</v>
       </c>
@@ -17020,7 +17033,7 @@
         <v>82</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>218</v>
+        <v>465</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>80</v>
@@ -17029,7 +17042,7 @@
         <v>92</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>82</v>
+        <v>471</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>82</v>
@@ -17038,38 +17051,38 @@
         <v>82</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>82</v>
+        <v>472</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>82</v>
+        <v>473</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>113</v>
+        <v>474</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP120" t="s" s="2">
-        <v>82</v>
+        <v>475</v>
       </c>
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H121" t="s" s="2">
         <v>82</v>
@@ -17081,17 +17094,15 @@
         <v>82</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N121" s="2"/>
       <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
         <v>82</v>
@@ -17128,31 +17139,31 @@
         <v>82</v>
       </c>
       <c r="AB121" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC121" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD121" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>82</v>
@@ -17164,7 +17175,7 @@
         <v>82</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>82</v>
@@ -17175,46 +17186,44 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G122" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H122" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I122" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>482</v>
+        <v>140</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>483</v>
+        <v>141</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>484</v>
+        <v>221</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>486</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O122" s="2"/>
       <c r="P122" t="s" s="2">
         <v>82</v>
       </c>
@@ -17250,31 +17259,31 @@
         <v>82</v>
       </c>
       <c r="AB122" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC122" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD122" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>487</v>
+        <v>222</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH122" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI122" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>82</v>
@@ -17283,10 +17292,10 @@
         <v>82</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>488</v>
+        <v>82</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>489</v>
+        <v>106</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>82</v>
@@ -17297,10 +17306,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17308,41 +17317,39 @@
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G123" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H123" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I123" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J123" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>115</v>
+        <v>485</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>259</v>
+        <v>488</v>
       </c>
       <c r="O123" t="s" s="2">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q123" t="s" s="2">
-        <v>495</v>
-      </c>
+      <c r="Q123" s="2"/>
       <c r="R123" t="s" s="2">
         <v>82</v>
       </c>
@@ -17362,13 +17369,13 @@
         <v>82</v>
       </c>
       <c r="X123" t="s" s="2">
-        <v>188</v>
+        <v>82</v>
       </c>
       <c r="Y123" t="s" s="2">
-        <v>496</v>
+        <v>82</v>
       </c>
       <c r="Z123" t="s" s="2">
-        <v>497</v>
+        <v>82</v>
       </c>
       <c r="AA123" t="s" s="2">
         <v>82</v>
@@ -17386,7 +17393,7 @@
         <v>82</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>80</v>
@@ -17407,10 +17414,10 @@
         <v>82</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>82</v>
@@ -17421,10 +17428,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17432,39 +17439,41 @@
       </c>
       <c r="E124" s="2"/>
       <c r="F124" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G124" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I124" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="I124" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="J124" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="N124" t="s" s="2">
         <v>259</v>
       </c>
       <c r="O124" t="s" s="2">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q124" s="2"/>
+      <c r="Q124" t="s" s="2">
+        <v>498</v>
+      </c>
       <c r="R124" t="s" s="2">
         <v>82</v>
       </c>
@@ -17484,13 +17493,13 @@
         <v>82</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>82</v>
+        <v>499</v>
       </c>
       <c r="Z124" t="s" s="2">
-        <v>82</v>
+        <v>500</v>
       </c>
       <c r="AA124" t="s" s="2">
         <v>82</v>
@@ -17508,7 +17517,7 @@
         <v>82</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>80</v>
@@ -17529,10 +17538,10 @@
         <v>82</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="AO124" t="s" s="2">
         <v>82</v>
@@ -17543,10 +17552,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17569,26 +17578,26 @@
         <v>93</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>108</v>
+        <v>215</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>513</v>
+        <v>259</v>
       </c>
       <c r="O125" t="s" s="2">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="P125" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q125" s="2"/>
       <c r="R125" t="s" s="2">
-        <v>515</v>
+        <v>82</v>
       </c>
       <c r="S125" t="s" s="2">
         <v>82</v>
@@ -17630,7 +17639,7 @@
         <v>82</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>80</v>
@@ -17639,7 +17648,7 @@
         <v>92</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>517</v>
+        <v>104</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>105</v>
@@ -17651,10 +17660,10 @@
         <v>82</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="AN125" t="s" s="2">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="AO125" t="s" s="2">
         <v>82</v>
@@ -17665,10 +17674,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17691,26 +17700,26 @@
         <v>93</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="O126" t="s" s="2">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q126" s="2"/>
       <c r="R126" t="s" s="2">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="S126" t="s" s="2">
         <v>82</v>
@@ -17752,7 +17761,7 @@
         <v>82</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>80</v>
@@ -17761,7 +17770,7 @@
         <v>92</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>104</v>
+        <v>520</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>105</v>
@@ -17773,10 +17782,10 @@
         <v>82</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="AN126" t="s" s="2">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="AO126" t="s" s="2">
         <v>82</v>
@@ -17787,10 +17796,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17798,7 +17807,7 @@
       </c>
       <c r="E127" s="2"/>
       <c r="F127" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G127" t="s" s="2">
         <v>92</v>
@@ -17810,29 +17819,29 @@
         <v>82</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>198</v>
+        <v>115</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="O127" t="s" s="2">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q127" s="2"/>
       <c r="R127" t="s" s="2">
-        <v>82</v>
+        <v>527</v>
       </c>
       <c r="S127" t="s" s="2">
         <v>82</v>
@@ -17850,11 +17859,13 @@
         <v>82</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="Y127" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y127" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z127" t="s" s="2">
-        <v>532</v>
+        <v>82</v>
       </c>
       <c r="AA127" t="s" s="2">
         <v>82</v>
@@ -17872,7 +17883,7 @@
         <v>82</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>80</v>
@@ -17881,7 +17892,7 @@
         <v>92</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>533</v>
+        <v>104</v>
       </c>
       <c r="AJ127" t="s" s="2">
         <v>105</v>
@@ -17893,10 +17904,10 @@
         <v>82</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>106</v>
+        <v>510</v>
       </c>
       <c r="AN127" t="s" s="2">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="AO127" t="s" s="2">
         <v>82</v>
@@ -17907,24 +17918,24 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
-        <v>536</v>
+        <v>82</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G128" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H128" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I128" t="s" s="2">
         <v>82</v>
@@ -17936,16 +17947,16 @@
         <v>198</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>82</v>
@@ -17970,13 +17981,11 @@
         <v>82</v>
       </c>
       <c r="X128" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="Y128" t="s" s="2">
-        <v>542</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="Y128" s="2"/>
       <c r="Z128" t="s" s="2">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="AA128" t="s" s="2">
         <v>82</v>
@@ -17994,16 +18003,16 @@
         <v>82</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH128" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>104</v>
+        <v>536</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>105</v>
@@ -18012,31 +18021,31 @@
         <v>82</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>544</v>
+        <v>82</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>545</v>
+        <v>106</v>
       </c>
       <c r="AN128" t="s" s="2">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="AO128" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP128" t="s" s="2">
-        <v>547</v>
+        <v>82</v>
       </c>
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
-        <v>82</v>
+        <v>539</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" t="s" s="2">
@@ -18055,19 +18064,19 @@
         <v>82</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>549</v>
+        <v>198</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="O129" t="s" s="2">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>82</v>
@@ -18092,13 +18101,13 @@
         <v>82</v>
       </c>
       <c r="X129" t="s" s="2">
-        <v>82</v>
+        <v>544</v>
       </c>
       <c r="Y129" t="s" s="2">
-        <v>82</v>
+        <v>545</v>
       </c>
       <c r="Z129" t="s" s="2">
-        <v>82</v>
+        <v>546</v>
       </c>
       <c r="AA129" t="s" s="2">
         <v>82</v>
@@ -18116,7 +18125,7 @@
         <v>82</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
@@ -18134,27 +18143,27 @@
         <v>82</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>82</v>
+        <v>547</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="AN129" t="s" s="2">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="AO129" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP129" t="s" s="2">
-        <v>82</v>
+        <v>550</v>
       </c>
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18165,7 +18174,7 @@
         <v>80</v>
       </c>
       <c r="G130" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H130" t="s" s="2">
         <v>82</v>
@@ -18177,18 +18186,20 @@
         <v>82</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>198</v>
+        <v>552</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="O130" s="2"/>
+        <v>555</v>
+      </c>
+      <c r="O130" t="s" s="2">
+        <v>556</v>
+      </c>
       <c r="P130" t="s" s="2">
         <v>82</v>
       </c>
@@ -18212,13 +18223,13 @@
         <v>82</v>
       </c>
       <c r="X130" t="s" s="2">
-        <v>383</v>
+        <v>82</v>
       </c>
       <c r="Y130" t="s" s="2">
-        <v>560</v>
+        <v>82</v>
       </c>
       <c r="Z130" t="s" s="2">
-        <v>561</v>
+        <v>82</v>
       </c>
       <c r="AA130" t="s" s="2">
         <v>82</v>
@@ -18236,13 +18247,13 @@
         <v>82</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH130" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI130" t="s" s="2">
         <v>104</v>
@@ -18254,27 +18265,27 @@
         <v>82</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>562</v>
+        <v>82</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="AN130" t="s" s="2">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="AO130" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP130" t="s" s="2">
-        <v>565</v>
+        <v>82</v>
       </c>
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18300,17 +18311,15 @@
         <v>198</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="O131" t="s" s="2">
-        <v>570</v>
-      </c>
+        <v>562</v>
+      </c>
+      <c r="O131" s="2"/>
       <c r="P131" t="s" s="2">
         <v>82</v>
       </c>
@@ -18337,10 +18346,10 @@
         <v>383</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="Z131" t="s" s="2">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="AA131" t="s" s="2">
         <v>82</v>
@@ -18358,7 +18367,7 @@
         <v>82</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>80</v>
@@ -18376,27 +18385,27 @@
         <v>82</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>82</v>
+        <v>565</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="AN131" t="s" s="2">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="AO131" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP131" t="s" s="2">
-        <v>82</v>
+        <v>568</v>
       </c>
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18419,18 +18428,20 @@
         <v>82</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>576</v>
+        <v>198</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="O132" s="2"/>
+        <v>572</v>
+      </c>
+      <c r="O132" t="s" s="2">
+        <v>573</v>
+      </c>
       <c r="P132" t="s" s="2">
         <v>82</v>
       </c>
@@ -18454,13 +18465,13 @@
         <v>82</v>
       </c>
       <c r="X132" t="s" s="2">
-        <v>82</v>
+        <v>383</v>
       </c>
       <c r="Y132" t="s" s="2">
-        <v>82</v>
+        <v>574</v>
       </c>
       <c r="Z132" t="s" s="2">
-        <v>82</v>
+        <v>575</v>
       </c>
       <c r="AA132" t="s" s="2">
         <v>82</v>
@@ -18478,7 +18489,7 @@
         <v>82</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>80</v>
@@ -18490,33 +18501,33 @@
         <v>104</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="AK132" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>580</v>
+        <v>82</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="AO132" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP132" t="s" s="2">
-        <v>583</v>
+        <v>82</v>
       </c>
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18539,16 +18550,16 @@
         <v>82</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="O133" s="2"/>
       <c r="P133" t="s" s="2">
@@ -18598,7 +18609,7 @@
         <v>82</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>80</v>
@@ -18616,27 +18627,27 @@
         <v>82</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="AN133" t="s" s="2">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="AO133" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP133" t="s" s="2">
-        <v>592</v>
+        <v>586</v>
       </c>
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18647,7 +18658,7 @@
         <v>80</v>
       </c>
       <c r="G134" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H134" t="s" s="2">
         <v>82</v>
@@ -18659,20 +18670,18 @@
         <v>82</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="O134" t="s" s="2">
-        <v>598</v>
-      </c>
+        <v>591</v>
+      </c>
+      <c r="O134" s="2"/>
       <c r="P134" t="s" s="2">
         <v>82</v>
       </c>
@@ -18720,45 +18729,45 @@
         <v>82</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH134" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI134" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ134" t="s" s="2">
-        <v>599</v>
+        <v>170</v>
       </c>
       <c r="AK134" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>82</v>
+        <v>592</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="AN134" t="s" s="2">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="AO134" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP134" t="s" s="2">
-        <v>82</v>
+        <v>595</v>
       </c>
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18769,7 +18778,7 @@
         <v>80</v>
       </c>
       <c r="G135" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H135" t="s" s="2">
         <v>82</v>
@@ -18781,16 +18790,20 @@
         <v>82</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>215</v>
+        <v>597</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>216</v>
+        <v>598</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N135" s="2"/>
-      <c r="O135" s="2"/>
+        <v>599</v>
+      </c>
+      <c r="N135" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="O135" t="s" s="2">
+        <v>601</v>
+      </c>
       <c r="P135" t="s" s="2">
         <v>82</v>
       </c>
@@ -18838,19 +18851,19 @@
         <v>82</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>218</v>
+        <v>596</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH135" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>82</v>
+        <v>602</v>
       </c>
       <c r="AK135" t="s" s="2">
         <v>82</v>
@@ -18859,10 +18872,10 @@
         <v>82</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>82</v>
+        <v>603</v>
       </c>
       <c r="AN135" t="s" s="2">
-        <v>113</v>
+        <v>604</v>
       </c>
       <c r="AO135" t="s" s="2">
         <v>82</v>
@@ -18873,21 +18886,21 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G136" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H136" t="s" s="2">
         <v>82</v>
@@ -18899,17 +18912,15 @@
         <v>82</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N136" s="2"/>
       <c r="O136" s="2"/>
       <c r="P136" t="s" s="2">
         <v>82</v>
@@ -18946,31 +18957,31 @@
         <v>82</v>
       </c>
       <c r="AB136" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC136" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD136" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH136" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="AK136" t="s" s="2">
         <v>82</v>
@@ -18982,7 +18993,7 @@
         <v>82</v>
       </c>
       <c r="AN136" t="s" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="AO136" t="s" s="2">
         <v>82</v>
@@ -18993,14 +19004,14 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
-        <v>605</v>
+        <v>139</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" t="s" s="2">
@@ -19013,26 +19024,24 @@
         <v>82</v>
       </c>
       <c r="I137" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K137" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>606</v>
+        <v>141</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>607</v>
+        <v>221</v>
       </c>
       <c r="N137" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="O137" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="O137" s="2"/>
       <c r="P137" t="s" s="2">
         <v>82</v>
       </c>
@@ -19068,19 +19077,19 @@
         <v>82</v>
       </c>
       <c r="AB137" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC137" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD137" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>608</v>
+        <v>222</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>80</v>
@@ -19115,44 +19124,46 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
-        <v>82</v>
+        <v>608</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G138" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H138" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I138" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K138" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L138" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="M138" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="L138" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="M138" t="s" s="2">
-        <v>612</v>
-      </c>
       <c r="N138" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="O138" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="O138" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P138" t="s" s="2">
         <v>82</v>
       </c>
@@ -19200,19 +19211,19 @@
         <v>82</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH138" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>614</v>
+        <v>104</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>615</v>
+        <v>148</v>
       </c>
       <c r="AK138" t="s" s="2">
         <v>82</v>
@@ -19221,10 +19232,10 @@
         <v>82</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>616</v>
+        <v>82</v>
       </c>
       <c r="AN138" t="s" s="2">
-        <v>617</v>
+        <v>106</v>
       </c>
       <c r="AO138" t="s" s="2">
         <v>82</v>
@@ -19235,10 +19246,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19261,16 +19272,16 @@
         <v>82</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="O139" s="2"/>
       <c r="P139" t="s" s="2">
@@ -19320,20 +19331,20 @@
         <v>82</v>
       </c>
       <c r="AF139" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="AG139" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH139" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI139" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="AJ139" t="s" s="2">
         <v>618</v>
       </c>
-      <c r="AG139" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH139" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI139" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="AJ139" t="s" s="2">
-        <v>615</v>
-      </c>
       <c r="AK139" t="s" s="2">
         <v>82</v>
       </c>
@@ -19341,10 +19352,10 @@
         <v>82</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="AN139" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AO139" t="s" s="2">
         <v>82</v>
@@ -19355,10 +19366,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19381,20 +19392,18 @@
         <v>82</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>198</v>
+        <v>613</v>
       </c>
       <c r="L140" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="M140" t="s" s="2">
         <v>623</v>
       </c>
-      <c r="M140" t="s" s="2">
-        <v>624</v>
-      </c>
       <c r="N140" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="O140" t="s" s="2">
-        <v>626</v>
-      </c>
+        <v>616</v>
+      </c>
+      <c r="O140" s="2"/>
       <c r="P140" t="s" s="2">
         <v>82</v>
       </c>
@@ -19418,13 +19427,13 @@
         <v>82</v>
       </c>
       <c r="X140" t="s" s="2">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="Y140" t="s" s="2">
-        <v>627</v>
+        <v>82</v>
       </c>
       <c r="Z140" t="s" s="2">
-        <v>628</v>
+        <v>82</v>
       </c>
       <c r="AA140" t="s" s="2">
         <v>82</v>
@@ -19442,7 +19451,7 @@
         <v>82</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>80</v>
@@ -19451,22 +19460,22 @@
         <v>92</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>104</v>
+        <v>617</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>105</v>
+        <v>618</v>
       </c>
       <c r="AK140" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>629</v>
+        <v>82</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="AN140" t="s" s="2">
-        <v>546</v>
+        <v>624</v>
       </c>
       <c r="AO140" t="s" s="2">
         <v>82</v>
@@ -19477,10 +19486,10 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19491,7 +19500,7 @@
         <v>80</v>
       </c>
       <c r="G141" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H141" t="s" s="2">
         <v>82</v>
@@ -19506,16 +19515,16 @@
         <v>198</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="O141" t="s" s="2">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>82</v>
@@ -19540,13 +19549,13 @@
         <v>82</v>
       </c>
       <c r="X141" t="s" s="2">
-        <v>383</v>
+        <v>119</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="Z141" t="s" s="2">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="AA141" t="s" s="2">
         <v>82</v>
@@ -19564,13 +19573,13 @@
         <v>82</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH141" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI141" t="s" s="2">
         <v>104</v>
@@ -19582,13 +19591,13 @@
         <v>82</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="AM141" t="s" s="2">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="AN141" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="AO141" t="s" s="2">
         <v>82</v>
@@ -19599,10 +19608,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19613,7 +19622,7 @@
         <v>80</v>
       </c>
       <c r="G142" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H142" t="s" s="2">
         <v>82</v>
@@ -19625,19 +19634,19 @@
         <v>82</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>639</v>
+        <v>198</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="O142" t="s" s="2">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="P142" t="s" s="2">
         <v>82</v>
@@ -19662,13 +19671,13 @@
         <v>82</v>
       </c>
       <c r="X142" t="s" s="2">
-        <v>82</v>
+        <v>383</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>82</v>
+        <v>639</v>
       </c>
       <c r="Z142" t="s" s="2">
-        <v>82</v>
+        <v>640</v>
       </c>
       <c r="AA142" t="s" s="2">
         <v>82</v>
@@ -19686,31 +19695,31 @@
         <v>82</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH142" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI142" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>644</v>
+        <v>105</v>
       </c>
       <c r="AK142" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>82</v>
+        <v>632</v>
       </c>
       <c r="AM142" t="s" s="2">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="AN142" t="s" s="2">
-        <v>646</v>
+        <v>549</v>
       </c>
       <c r="AO142" t="s" s="2">
         <v>82</v>
@@ -19721,10 +19730,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -19747,18 +19756,20 @@
         <v>82</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>215</v>
+        <v>642</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O143" s="2"/>
+        <v>645</v>
+      </c>
+      <c r="O143" t="s" s="2">
+        <v>646</v>
+      </c>
       <c r="P143" t="s" s="2">
         <v>82</v>
       </c>
@@ -19806,7 +19817,7 @@
         <v>82</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>80</v>
@@ -19818,7 +19829,7 @@
         <v>104</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>105</v>
+        <v>647</v>
       </c>
       <c r="AK143" t="s" s="2">
         <v>82</v>
@@ -19827,10 +19838,10 @@
         <v>82</v>
       </c>
       <c r="AM143" t="s" s="2">
-        <v>616</v>
+        <v>648</v>
       </c>
       <c r="AN143" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AO143" t="s" s="2">
         <v>82</v>
@@ -19841,10 +19852,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -19855,7 +19866,7 @@
         <v>80</v>
       </c>
       <c r="G144" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H144" t="s" s="2">
         <v>82</v>
@@ -19864,19 +19875,19 @@
         <v>82</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K144" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L144" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="M144" t="s" s="2">
         <v>652</v>
       </c>
-      <c r="L144" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="M144" t="s" s="2">
-        <v>654</v>
-      </c>
       <c r="N144" t="s" s="2">
-        <v>655</v>
+        <v>259</v>
       </c>
       <c r="O144" s="2"/>
       <c r="P144" t="s" s="2">
@@ -19926,19 +19937,19 @@
         <v>82</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH144" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI144" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ144" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="AK144" t="s" s="2">
         <v>82</v>
@@ -19947,10 +19958,10 @@
         <v>82</v>
       </c>
       <c r="AM144" t="s" s="2">
-        <v>656</v>
+        <v>619</v>
       </c>
       <c r="AN144" t="s" s="2">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="AO144" t="s" s="2">
         <v>82</v>
@@ -19961,10 +19972,10 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -19987,16 +19998,16 @@
         <v>93</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="O145" s="2"/>
       <c r="P145" t="s" s="2">
@@ -20046,7 +20057,7 @@
         <v>82</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>80</v>
@@ -20067,10 +20078,10 @@
         <v>82</v>
       </c>
       <c r="AM145" t="s" s="2">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="AN145" t="s" s="2">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="AO145" t="s" s="2">
         <v>82</v>
@@ -20081,10 +20092,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20107,20 +20118,18 @@
         <v>93</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>594</v>
+        <v>662</v>
       </c>
       <c r="L146" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="M146" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="N146" t="s" s="2">
         <v>665</v>
       </c>
-      <c r="M146" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="N146" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="O146" t="s" s="2">
-        <v>668</v>
-      </c>
+      <c r="O146" s="2"/>
       <c r="P146" t="s" s="2">
         <v>82</v>
       </c>
@@ -20168,7 +20177,7 @@
         <v>82</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>80</v>
@@ -20180,7 +20189,7 @@
         <v>104</v>
       </c>
       <c r="AJ146" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="AK146" t="s" s="2">
         <v>82</v>
@@ -20189,10 +20198,10 @@
         <v>82</v>
       </c>
       <c r="AM146" t="s" s="2">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="AN146" t="s" s="2">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="AO146" t="s" s="2">
         <v>82</v>
@@ -20203,10 +20212,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20217,7 +20226,7 @@
         <v>80</v>
       </c>
       <c r="G147" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H147" t="s" s="2">
         <v>82</v>
@@ -20226,19 +20235,23 @@
         <v>82</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>215</v>
+        <v>597</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>216</v>
+        <v>668</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N147" s="2"/>
-      <c r="O147" s="2"/>
+        <v>669</v>
+      </c>
+      <c r="N147" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="O147" t="s" s="2">
+        <v>671</v>
+      </c>
       <c r="P147" t="s" s="2">
         <v>82</v>
       </c>
@@ -20286,19 +20299,19 @@
         <v>82</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>218</v>
+        <v>667</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH147" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ147" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK147" t="s" s="2">
         <v>82</v>
@@ -20307,10 +20320,10 @@
         <v>82</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>82</v>
+        <v>672</v>
       </c>
       <c r="AN147" t="s" s="2">
-        <v>113</v>
+        <v>673</v>
       </c>
       <c r="AO147" t="s" s="2">
         <v>82</v>
@@ -20321,21 +20334,21 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E148" s="2"/>
       <c r="F148" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G148" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H148" t="s" s="2">
         <v>82</v>
@@ -20347,17 +20360,15 @@
         <v>82</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N148" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N148" s="2"/>
       <c r="O148" s="2"/>
       <c r="P148" t="s" s="2">
         <v>82</v>
@@ -20394,31 +20405,31 @@
         <v>82</v>
       </c>
       <c r="AB148" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC148" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD148" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH148" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ148" t="s" s="2">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="AK148" t="s" s="2">
         <v>82</v>
@@ -20430,7 +20441,7 @@
         <v>82</v>
       </c>
       <c r="AN148" t="s" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="AO148" t="s" s="2">
         <v>82</v>
@@ -20441,14 +20452,14 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
-        <v>605</v>
+        <v>139</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149" t="s" s="2">
@@ -20461,26 +20472,24 @@
         <v>82</v>
       </c>
       <c r="I149" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K149" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>606</v>
+        <v>141</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>607</v>
+        <v>221</v>
       </c>
       <c r="N149" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="O149" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="O149" s="2"/>
       <c r="P149" t="s" s="2">
         <v>82</v>
       </c>
@@ -20516,19 +20525,19 @@
         <v>82</v>
       </c>
       <c r="AB149" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC149" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD149" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>608</v>
+        <v>222</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>80</v>
@@ -20563,45 +20572,45 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
-        <v>82</v>
+        <v>608</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G150" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H150" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I150" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J150" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>675</v>
+        <v>609</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>676</v>
+        <v>610</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>677</v>
+        <v>143</v>
       </c>
       <c r="O150" t="s" s="2">
-        <v>382</v>
+        <v>152</v>
       </c>
       <c r="P150" t="s" s="2">
         <v>82</v>
@@ -20626,13 +20635,13 @@
         <v>82</v>
       </c>
       <c r="X150" t="s" s="2">
-        <v>383</v>
+        <v>82</v>
       </c>
       <c r="Y150" t="s" s="2">
-        <v>384</v>
+        <v>82</v>
       </c>
       <c r="Z150" t="s" s="2">
-        <v>385</v>
+        <v>82</v>
       </c>
       <c r="AA150" t="s" s="2">
         <v>82</v>
@@ -20650,34 +20659,34 @@
         <v>82</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>674</v>
+        <v>611</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH150" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI150" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ150" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK150" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>678</v>
+        <v>82</v>
       </c>
       <c r="AM150" t="s" s="2">
-        <v>388</v>
+        <v>82</v>
       </c>
       <c r="AN150" t="s" s="2">
-        <v>389</v>
+        <v>106</v>
       </c>
       <c r="AO150" t="s" s="2">
-        <v>390</v>
+        <v>82</v>
       </c>
       <c r="AP150" t="s" s="2">
         <v>82</v>
@@ -20685,10 +20694,10 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -20696,7 +20705,7 @@
       </c>
       <c r="E151" s="2"/>
       <c r="F151" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G151" t="s" s="2">
         <v>92</v>
@@ -20711,19 +20720,19 @@
         <v>93</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>462</v>
+        <v>198</v>
       </c>
       <c r="L151" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="M151" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="N151" t="s" s="2">
         <v>680</v>
       </c>
-      <c r="M151" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N151" t="s" s="2">
-        <v>681</v>
-      </c>
       <c r="O151" t="s" s="2">
-        <v>466</v>
+        <v>382</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>82</v>
@@ -20748,13 +20757,13 @@
         <v>82</v>
       </c>
       <c r="X151" t="s" s="2">
-        <v>82</v>
+        <v>383</v>
       </c>
       <c r="Y151" t="s" s="2">
-        <v>82</v>
+        <v>384</v>
       </c>
       <c r="Z151" t="s" s="2">
-        <v>82</v>
+        <v>385</v>
       </c>
       <c r="AA151" t="s" s="2">
         <v>82</v>
@@ -20772,10 +20781,10 @@
         <v>82</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>92</v>
@@ -20790,27 +20799,27 @@
         <v>82</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>470</v>
+        <v>388</v>
       </c>
       <c r="AN151" t="s" s="2">
-        <v>471</v>
+        <v>389</v>
       </c>
       <c r="AO151" t="s" s="2">
-        <v>82</v>
+        <v>390</v>
       </c>
       <c r="AP151" t="s" s="2">
-        <v>472</v>
+        <v>82</v>
       </c>
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -20830,22 +20839,22 @@
         <v>82</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>198</v>
+        <v>466</v>
       </c>
       <c r="L152" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="M152" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="N152" t="s" s="2">
         <v>684</v>
       </c>
-      <c r="M152" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="N152" t="s" s="2">
-        <v>686</v>
-      </c>
       <c r="O152" t="s" s="2">
-        <v>531</v>
+        <v>470</v>
       </c>
       <c r="P152" t="s" s="2">
         <v>82</v>
@@ -20870,13 +20879,13 @@
         <v>82</v>
       </c>
       <c r="X152" t="s" s="2">
-        <v>541</v>
+        <v>82</v>
       </c>
       <c r="Y152" t="s" s="2">
-        <v>687</v>
+        <v>82</v>
       </c>
       <c r="Z152" t="s" s="2">
-        <v>688</v>
+        <v>82</v>
       </c>
       <c r="AA152" t="s" s="2">
         <v>82</v>
@@ -20894,7 +20903,7 @@
         <v>82</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>80</v>
@@ -20903,7 +20912,7 @@
         <v>92</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>533</v>
+        <v>104</v>
       </c>
       <c r="AJ152" t="s" s="2">
         <v>105</v>
@@ -20912,38 +20921,38 @@
         <v>82</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>82</v>
+        <v>685</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>106</v>
+        <v>473</v>
       </c>
       <c r="AN152" t="s" s="2">
-        <v>534</v>
+        <v>474</v>
       </c>
       <c r="AO152" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP152" t="s" s="2">
-        <v>82</v>
+        <v>475</v>
       </c>
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
-        <v>536</v>
+        <v>82</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G153" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H153" t="s" s="2">
         <v>82</v>
@@ -20958,16 +20967,16 @@
         <v>198</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>537</v>
+        <v>687</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>538</v>
+        <v>688</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>539</v>
+        <v>689</v>
       </c>
       <c r="O153" t="s" s="2">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="P153" t="s" s="2">
         <v>82</v>
@@ -20992,13 +21001,13 @@
         <v>82</v>
       </c>
       <c r="X153" t="s" s="2">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="Y153" t="s" s="2">
-        <v>542</v>
+        <v>690</v>
       </c>
       <c r="Z153" t="s" s="2">
-        <v>543</v>
+        <v>691</v>
       </c>
       <c r="AA153" t="s" s="2">
         <v>82</v>
@@ -21016,16 +21025,16 @@
         <v>82</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH153" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>104</v>
+        <v>536</v>
       </c>
       <c r="AJ153" t="s" s="2">
         <v>105</v>
@@ -21034,31 +21043,31 @@
         <v>82</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>544</v>
+        <v>82</v>
       </c>
       <c r="AM153" t="s" s="2">
-        <v>545</v>
+        <v>106</v>
       </c>
       <c r="AN153" t="s" s="2">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="AO153" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP153" t="s" s="2">
-        <v>547</v>
+        <v>82</v>
       </c>
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
-        <v>82</v>
+        <v>539</v>
       </c>
       <c r="E154" s="2"/>
       <c r="F154" t="s" s="2">
@@ -21077,19 +21086,19 @@
         <v>82</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>83</v>
+        <v>198</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>691</v>
+        <v>540</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>692</v>
+        <v>541</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>597</v>
+        <v>542</v>
       </c>
       <c r="O154" t="s" s="2">
-        <v>598</v>
+        <v>543</v>
       </c>
       <c r="P154" t="s" s="2">
         <v>82</v>
@@ -21114,13 +21123,13 @@
         <v>82</v>
       </c>
       <c r="X154" t="s" s="2">
-        <v>82</v>
+        <v>544</v>
       </c>
       <c r="Y154" t="s" s="2">
-        <v>82</v>
+        <v>545</v>
       </c>
       <c r="Z154" t="s" s="2">
-        <v>82</v>
+        <v>546</v>
       </c>
       <c r="AA154" t="s" s="2">
         <v>82</v>
@@ -21138,7 +21147,7 @@
         <v>82</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>80</v>
@@ -21147,32 +21156,154 @@
         <v>81</v>
       </c>
       <c r="AI154" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ154" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK154" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>82</v>
+        <v>547</v>
       </c>
       <c r="AM154" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AN154" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AO154" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP154" t="s" s="2">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="155" hidden="true">
+      <c r="A155" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="B155" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="C155" s="2"/>
+      <c r="D155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E155" s="2"/>
+      <c r="F155" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G155" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K155" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L155" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="M155" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="N155" t="s" s="2">
         <v>600</v>
       </c>
-      <c r="AN154" t="s" s="2">
+      <c r="O155" t="s" s="2">
         <v>601</v>
       </c>
-      <c r="AO154" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP154" t="s" s="2">
+      <c r="P155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q155" s="2"/>
+      <c r="R155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF155" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="AG155" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH155" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM155" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="AN155" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="AO155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP155" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP154">
+  <autoFilter ref="A1:AP155">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -21182,7 +21313,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI153">
+  <conditionalFormatting sqref="A2:AI154">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
